--- a/QUANGHANH2/excel/DK/DailyDepartment/BaoCao.xlsx
+++ b/QUANGHANH2/excel/DK/DailyDepartment/BaoCao.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -93,18 +93,6 @@
     <t>Phân xưởng khai thác 1</t>
   </si>
   <si>
-    <t>Than khai thác</t>
-  </si>
-  <si>
-    <t>Mét Lò Đào</t>
-  </si>
-  <si>
-    <t>Mét Lò Neo</t>
-  </si>
-  <si>
-    <t>Méo Lò Xén</t>
-  </si>
-  <si>
     <t>Phân xưởng khai thác 2</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>Phân xưởng đào lò 3</t>
   </si>
   <si>
-    <t>Than đào lò</t>
-  </si>
-  <si>
     <t>Phân xưởng đào lò 5</t>
   </si>
   <si>
@@ -153,49 +138,19 @@
     <t>Công Ty Dương Huy</t>
   </si>
   <si>
-    <t>Nhập Dương Huy</t>
-  </si>
-  <si>
     <t>Phân xưởng sàng tuyển</t>
   </si>
   <si>
-    <t>ST - Cục 4a.2 (Ak 7,01-12,00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST - Cục 5a.2  (Ak = 8.01 - 12.00%)</t>
-  </si>
-  <si>
-    <t>ST - Cám 4a.1(Ak = 19,01 - 23,00%)</t>
-  </si>
-  <si>
-    <t>ST - Cám 5a.1 (Ak = 27,01 - 30,00%)</t>
-  </si>
-  <si>
-    <t>ST - Cám 5b.1(Ak = 31,01 - 35,00%)</t>
-  </si>
-  <si>
-    <t>ST - Cám 6a.1 (Ak = 35,01- 40,00%)</t>
-  </si>
-  <si>
-    <t>ST - Bùn 3c (Ak = 40,01-:-45,00%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST - Cục 1B  (Ak =13.01 - 17.00%)</t>
-  </si>
-  <si>
     <t>Phân xưởng lộ thiên</t>
-  </si>
-  <si>
-    <t>LT Tự Làm</t>
-  </si>
-  <si>
-    <t>LT Thuê Ngoài</t>
   </si>
   <si>
     <t>Công ty Xây lắp mỏ - TKV</t>
   </si>
   <si>
     <t>Liên doanh nhà thầu Công ty CP thương mại - công nghệ CT Thăng Long và Công ty tư vấn Công ty Thăng Long</t>
+  </si>
+  <si>
+    <t>Công ty ASEAN</t>
   </si>
 </sst>
 </file>
@@ -233,13 +188,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF008000"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF008000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -637,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0453357E-5159-4AA2-B798-E49FECBC0A71}">
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -756,47 +711,45 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5">
-        <v>6103.625</v>
+        <v>57.5625</v>
       </c>
       <c r="D4" s="5">
-        <v>470</v>
+        <v>633</v>
       </c>
       <c r="E4" s="5">
-        <v>597</v>
+        <v>458</v>
       </c>
       <c r="F4" s="5">
-        <v>996</v>
+        <v>613</v>
       </c>
       <c r="G4" s="5">
-        <v>2063</v>
+        <v>1704</v>
       </c>
       <c r="H4" s="5">
-        <v>1069</v>
+        <v>2000</v>
       </c>
       <c r="I4" s="6">
-        <v>994</v>
+        <v>-296</v>
       </c>
       <c r="J4" s="5">
-        <v>1.9298409728718429</v>
+        <v>0.852</v>
       </c>
       <c r="K4" s="5">
-        <v>13001</v>
+        <v>13987</v>
       </c>
       <c r="L4" s="5">
-        <v>97658</v>
+        <v>921</v>
       </c>
       <c r="M4" s="5">
-        <v>13.312785434885008</v>
+        <v>1518.6753528773072</v>
       </c>
       <c r="N4" s="5">
-        <v>84657</v>
+        <v>-13066</v>
       </c>
       <c r="O4" s="5">
-        <v>5291.0625</v>
+        <v>-816.625</v>
       </c>
       <c r="P4" s="5"/>
     </row>
@@ -804,47 +757,45 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5">
-        <v>14.8125</v>
+        <v>42.75</v>
       </c>
       <c r="D5" s="5">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E5" s="5">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="F5" s="5">
-        <v>381</v>
+        <v>115</v>
       </c>
       <c r="G5" s="5">
-        <v>716</v>
+        <v>411</v>
       </c>
       <c r="H5" s="5">
-        <v>1091</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>-375</v>
+        <v>411</v>
       </c>
       <c r="J5" s="5">
-        <v>0.65627864344637943</v>
+        <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>12259</v>
+        <v>11414</v>
       </c>
       <c r="L5" s="5">
-        <v>237</v>
+        <v>684</v>
       </c>
       <c r="M5" s="5">
-        <v>5172.5738396624474</v>
+        <v>1668.7134502923977</v>
       </c>
       <c r="N5" s="5">
-        <v>-12022</v>
+        <v>-10730</v>
       </c>
       <c r="O5" s="5">
-        <v>-751.375</v>
+        <v>-670.625</v>
       </c>
       <c r="P5" s="5"/>
     </row>
@@ -852,47 +803,45 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="5">
-        <v>42.75</v>
+        <v>14.8125</v>
       </c>
       <c r="D6" s="5">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="E6" s="5">
-        <v>443</v>
+        <v>105</v>
       </c>
       <c r="F6" s="5">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="G6" s="5">
-        <v>1094</v>
+        <v>691</v>
       </c>
       <c r="H6" s="5">
-        <v>1655</v>
-      </c>
-      <c r="I6" s="7">
-        <v>-561</v>
+        <v>1500</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-809</v>
       </c>
       <c r="J6" s="5">
-        <v>0.66102719033232626</v>
+        <v>0.46066666666666667</v>
       </c>
       <c r="K6" s="5">
-        <v>11003</v>
+        <v>13692</v>
       </c>
       <c r="L6" s="5">
-        <v>684</v>
+        <v>237</v>
       </c>
       <c r="M6" s="5">
-        <v>1608.625730994152</v>
+        <v>5777.2151898734182</v>
       </c>
       <c r="N6" s="5">
-        <v>-10319</v>
+        <v>-13455</v>
       </c>
       <c r="O6" s="5">
-        <v>-644.9375</v>
+        <v>-840.9375</v>
       </c>
       <c r="P6" s="5"/>
     </row>
@@ -900,53 +849,51 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="5">
-        <v>57.5625</v>
+        <v>6103.625</v>
       </c>
       <c r="D7" s="5">
-        <v>846</v>
+        <v>743</v>
       </c>
       <c r="E7" s="5">
-        <v>163</v>
+        <v>657</v>
       </c>
       <c r="F7" s="5">
-        <v>329</v>
+        <v>216</v>
       </c>
       <c r="G7" s="5">
-        <v>1338</v>
+        <v>1616</v>
       </c>
       <c r="H7" s="5">
-        <v>1947</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="7">
-        <v>-609</v>
+        <v>616</v>
       </c>
       <c r="J7" s="5">
-        <v>0.687211093990755</v>
+        <v>1.616</v>
       </c>
       <c r="K7" s="5">
-        <v>12283</v>
+        <v>13875</v>
       </c>
       <c r="L7" s="5">
-        <v>921</v>
+        <v>97658</v>
       </c>
       <c r="M7" s="5">
-        <v>1333.6590662323561</v>
+        <v>14.207745397202482</v>
       </c>
       <c r="N7" s="5">
-        <v>-11362</v>
+        <v>83783</v>
       </c>
       <c r="O7" s="5">
-        <v>-710.125</v>
+        <v>5236.4375</v>
       </c>
       <c r="P7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -968,47 +915,45 @@
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5">
         <v>39.3125</v>
       </c>
       <c r="D9" s="5">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="E9" s="5">
-        <v>156</v>
+        <v>371</v>
       </c>
       <c r="F9" s="5">
-        <v>477</v>
+        <v>786</v>
       </c>
       <c r="G9" s="5">
-        <v>1393</v>
+        <v>1357</v>
       </c>
       <c r="H9" s="5">
-        <v>2187</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>-794</v>
+        <v>1357</v>
       </c>
       <c r="J9" s="5">
-        <v>0.63694558756287156</v>
+        <v>0</v>
       </c>
       <c r="K9" s="5">
-        <v>12723</v>
+        <v>13860</v>
       </c>
       <c r="L9" s="5">
         <v>629</v>
       </c>
       <c r="M9" s="5">
-        <v>2022.7344992050873</v>
+        <v>2203.4976152623212</v>
       </c>
       <c r="N9" s="5">
-        <v>-12094</v>
+        <v>-13231</v>
       </c>
       <c r="O9" s="5">
-        <v>-755.875</v>
+        <v>-826.9375</v>
       </c>
       <c r="P9" s="5"/>
     </row>
@@ -1016,47 +961,45 @@
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5">
         <v>48.125</v>
       </c>
       <c r="D10" s="5">
-        <v>649</v>
+        <v>878</v>
       </c>
       <c r="E10" s="5">
-        <v>715</v>
+        <v>845</v>
       </c>
       <c r="F10" s="5">
-        <v>784</v>
+        <v>971</v>
       </c>
       <c r="G10" s="5">
-        <v>2148</v>
+        <v>2694</v>
       </c>
       <c r="H10" s="5">
-        <v>2381</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>-233</v>
+        <v>2694</v>
       </c>
       <c r="J10" s="5">
-        <v>0.90214195716085677</v>
+        <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>12503</v>
+        <v>15417</v>
       </c>
       <c r="L10" s="5">
         <v>770</v>
       </c>
       <c r="M10" s="5">
-        <v>1623.7662337662339</v>
+        <v>2002.2077922077922</v>
       </c>
       <c r="N10" s="5">
-        <v>-11733</v>
+        <v>-14647</v>
       </c>
       <c r="O10" s="5">
-        <v>-733.3125</v>
+        <v>-915.4375</v>
       </c>
       <c r="P10" s="5"/>
     </row>
@@ -1064,47 +1007,45 @@
       <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5">
         <v>47.375</v>
       </c>
       <c r="D11" s="5">
-        <v>937</v>
+        <v>163</v>
       </c>
       <c r="E11" s="5">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="F11" s="5">
-        <v>210</v>
+        <v>349</v>
       </c>
       <c r="G11" s="5">
-        <v>1986</v>
+        <v>1326</v>
       </c>
       <c r="H11" s="5">
-        <v>1991</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>-5</v>
+        <v>1326</v>
       </c>
       <c r="J11" s="5">
-        <v>0.99748869914615768</v>
+        <v>0</v>
       </c>
       <c r="K11" s="5">
-        <v>12185</v>
+        <v>13511</v>
       </c>
       <c r="L11" s="5">
         <v>758</v>
       </c>
       <c r="M11" s="5">
-        <v>1607.5197889182057</v>
+        <v>1782.4538258575199</v>
       </c>
       <c r="N11" s="5">
-        <v>-11427</v>
+        <v>-12753</v>
       </c>
       <c r="O11" s="5">
-        <v>-714.1875</v>
+        <v>-797.0625</v>
       </c>
       <c r="P11" s="5"/>
     </row>
@@ -1112,53 +1053,51 @@
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5">
         <v>7.25</v>
       </c>
       <c r="D12" s="5">
-        <v>739</v>
+        <v>803</v>
       </c>
       <c r="E12" s="5">
-        <v>758</v>
+        <v>194</v>
       </c>
       <c r="F12" s="5">
-        <v>754</v>
+        <v>557</v>
       </c>
       <c r="G12" s="5">
-        <v>2251</v>
+        <v>1554</v>
       </c>
       <c r="H12" s="5">
-        <v>1224</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1027</v>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1554</v>
       </c>
       <c r="J12" s="5">
-        <v>1.8390522875816993</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>12150</v>
+        <v>13704</v>
       </c>
       <c r="L12" s="5">
         <v>116</v>
       </c>
       <c r="M12" s="5">
-        <v>10474.137931034482</v>
+        <v>11813.793103448275</v>
       </c>
       <c r="N12" s="5">
-        <v>-12034</v>
+        <v>-13588</v>
       </c>
       <c r="O12" s="5">
-        <v>-752.125</v>
+        <v>-849.25</v>
       </c>
       <c r="P12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1180,47 +1119,45 @@
       <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="5">
-        <v>17.875</v>
+        <v>19.875</v>
       </c>
       <c r="D14" s="5">
-        <v>502</v>
+        <v>724</v>
       </c>
       <c r="E14" s="5">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5">
-        <v>829</v>
+        <v>769</v>
       </c>
       <c r="G14" s="5">
-        <v>1558</v>
+        <v>1597</v>
       </c>
       <c r="H14" s="5">
-        <v>2302</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>-744</v>
+        <v>1597</v>
       </c>
       <c r="J14" s="5">
-        <v>0.67680278019113815</v>
+        <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>11365</v>
+        <v>11672</v>
       </c>
       <c r="L14" s="5">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="M14" s="5">
-        <v>3973.776223776224</v>
+        <v>3670.4402515723273</v>
       </c>
       <c r="N14" s="5">
-        <v>-11079</v>
+        <v>-11354</v>
       </c>
       <c r="O14" s="5">
-        <v>-692.4375</v>
+        <v>-709.625</v>
       </c>
       <c r="P14" s="5"/>
     </row>
@@ -1228,47 +1165,45 @@
       <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5">
-        <v>45.5625</v>
+        <v>27.875</v>
       </c>
       <c r="D15" s="5">
-        <v>246</v>
+        <v>389</v>
       </c>
       <c r="E15" s="5">
-        <v>118</v>
+        <v>492</v>
       </c>
       <c r="F15" s="5">
-        <v>394</v>
+        <v>858</v>
       </c>
       <c r="G15" s="5">
-        <v>758</v>
+        <v>1739</v>
       </c>
       <c r="H15" s="5">
-        <v>2174</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>-1416</v>
+        <v>1739</v>
       </c>
       <c r="J15" s="5">
-        <v>0.34866605335786571</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5">
-        <v>11141</v>
+        <v>11950</v>
       </c>
       <c r="L15" s="5">
-        <v>729</v>
+        <v>446</v>
       </c>
       <c r="M15" s="5">
-        <v>1528.2578875171469</v>
+        <v>2679.3721973094171</v>
       </c>
       <c r="N15" s="5">
-        <v>-10412</v>
+        <v>-11504</v>
       </c>
       <c r="O15" s="5">
-        <v>-650.75</v>
+        <v>-719</v>
       </c>
       <c r="P15" s="5"/>
     </row>
@@ -1276,47 +1211,45 @@
       <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="5">
-        <v>27.875</v>
+        <v>45.5625</v>
       </c>
       <c r="D16" s="5">
-        <v>901</v>
+        <v>621</v>
       </c>
       <c r="E16" s="5">
-        <v>280</v>
+        <v>408</v>
       </c>
       <c r="F16" s="5">
-        <v>470</v>
+        <v>135</v>
       </c>
       <c r="G16" s="5">
-        <v>1651</v>
+        <v>1164</v>
       </c>
       <c r="H16" s="5">
-        <v>1660</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>-9</v>
+        <v>1164</v>
       </c>
       <c r="J16" s="5">
-        <v>0.994578313253012</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>10211</v>
+        <v>12529</v>
       </c>
       <c r="L16" s="5">
-        <v>446</v>
+        <v>729</v>
       </c>
       <c r="M16" s="5">
-        <v>2289.4618834080716</v>
+        <v>1718.655692729767</v>
       </c>
       <c r="N16" s="5">
-        <v>-9765</v>
+        <v>-11800</v>
       </c>
       <c r="O16" s="5">
-        <v>-610.3125</v>
+        <v>-737.5</v>
       </c>
       <c r="P16" s="5"/>
     </row>
@@ -1324,53 +1257,51 @@
       <c r="A17" s="5">
         <v>4</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="5">
-        <v>19.875</v>
+        <v>17.875</v>
       </c>
       <c r="D17" s="5">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="E17" s="5">
-        <v>329</v>
+        <v>538</v>
       </c>
       <c r="F17" s="5">
-        <v>706</v>
+        <v>855</v>
       </c>
       <c r="G17" s="5">
-        <v>1404</v>
+        <v>1619</v>
       </c>
       <c r="H17" s="5">
-        <v>1451</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>-47</v>
+        <v>1619</v>
       </c>
       <c r="J17" s="5">
-        <v>0.96760854583046174</v>
+        <v>0</v>
       </c>
       <c r="K17" s="5">
-        <v>10075</v>
+        <v>12760</v>
       </c>
       <c r="L17" s="5">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="M17" s="5">
-        <v>3168.2389937106918</v>
+        <v>4461.538461538461</v>
       </c>
       <c r="N17" s="5">
-        <v>-9757</v>
+        <v>-12474</v>
       </c>
       <c r="O17" s="5">
-        <v>-609.8125</v>
+        <v>-779.625</v>
       </c>
       <c r="P17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1392,47 +1323,45 @@
       <c r="A19" s="5">
         <v>1</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="5">
         <v>36.75</v>
       </c>
       <c r="D19" s="5">
-        <v>331</v>
+        <v>818</v>
       </c>
       <c r="E19" s="5">
-        <v>847</v>
+        <v>813</v>
       </c>
       <c r="F19" s="5">
-        <v>159</v>
+        <v>357</v>
       </c>
       <c r="G19" s="5">
-        <v>1337</v>
+        <v>1988</v>
       </c>
       <c r="H19" s="5">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>-443</v>
+        <v>1988</v>
       </c>
       <c r="J19" s="5">
-        <v>0.751123595505618</v>
+        <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>10219</v>
+        <v>14845</v>
       </c>
       <c r="L19" s="5">
         <v>588</v>
       </c>
       <c r="M19" s="5">
-        <v>1737.925170068027</v>
+        <v>2524.6598639455783</v>
       </c>
       <c r="N19" s="5">
-        <v>-9631</v>
+        <v>-14257</v>
       </c>
       <c r="O19" s="5">
-        <v>-601.9375</v>
+        <v>-891.0625</v>
       </c>
       <c r="P19" s="5"/>
     </row>
@@ -1440,47 +1369,45 @@
       <c r="A20" s="5">
         <v>2</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="5">
         <v>43.0625</v>
       </c>
       <c r="D20" s="5">
-        <v>144</v>
+        <v>994</v>
       </c>
       <c r="E20" s="5">
-        <v>808</v>
+        <v>874</v>
       </c>
       <c r="F20" s="5">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="G20" s="5">
-        <v>1920</v>
+        <v>2828</v>
       </c>
       <c r="H20" s="5">
-        <v>2128</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>-208</v>
+        <v>2828</v>
       </c>
       <c r="J20" s="5">
-        <v>0.90225563909774431</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>12857</v>
+        <v>13047</v>
       </c>
       <c r="L20" s="5">
         <v>689</v>
       </c>
       <c r="M20" s="5">
-        <v>1866.0377358490568</v>
+        <v>1893.6139332365749</v>
       </c>
       <c r="N20" s="5">
-        <v>-12168</v>
+        <v>-12358</v>
       </c>
       <c r="O20" s="5">
-        <v>-760.5</v>
+        <v>-772.375</v>
       </c>
       <c r="P20" s="5"/>
     </row>
@@ -1488,47 +1415,45 @@
       <c r="A21" s="5">
         <v>3</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="5">
         <v>35.5625</v>
       </c>
       <c r="D21" s="5">
-        <v>146</v>
+        <v>459</v>
       </c>
       <c r="E21" s="5">
-        <v>638</v>
+        <v>762</v>
       </c>
       <c r="F21" s="5">
-        <v>397</v>
+        <v>886</v>
       </c>
       <c r="G21" s="5">
-        <v>1181</v>
+        <v>2107</v>
       </c>
       <c r="H21" s="5">
-        <v>1212</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>-31</v>
+        <v>2107</v>
       </c>
       <c r="J21" s="5">
-        <v>0.97442244224422447</v>
+        <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>9529</v>
+        <v>11636</v>
       </c>
       <c r="L21" s="5">
         <v>569</v>
       </c>
       <c r="M21" s="5">
-        <v>1674.6924428822495</v>
+        <v>2044.9912126537786</v>
       </c>
       <c r="N21" s="5">
-        <v>-8960</v>
+        <v>-11067</v>
       </c>
       <c r="O21" s="5">
-        <v>-560</v>
+        <v>-691.6875</v>
       </c>
       <c r="P21" s="5"/>
     </row>
@@ -1536,53 +1461,51 @@
       <c r="A22" s="5">
         <v>4</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="5">
         <v>56.375</v>
       </c>
       <c r="D22" s="5">
-        <v>581</v>
+        <v>366</v>
       </c>
       <c r="E22" s="5">
-        <v>750</v>
+        <v>968</v>
       </c>
       <c r="F22" s="5">
-        <v>276</v>
+        <v>537</v>
       </c>
       <c r="G22" s="5">
-        <v>1607</v>
+        <v>1871</v>
       </c>
       <c r="H22" s="5">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>-223</v>
+        <v>1871</v>
       </c>
       <c r="J22" s="5">
-        <v>0.87814207650273224</v>
+        <v>0</v>
       </c>
       <c r="K22" s="5">
-        <v>11534</v>
+        <v>13405</v>
       </c>
       <c r="L22" s="5">
         <v>902</v>
       </c>
       <c r="M22" s="5">
-        <v>1278.7139689578714</v>
+        <v>1486.1419068736143</v>
       </c>
       <c r="N22" s="5">
-        <v>-10632</v>
+        <v>-12503</v>
       </c>
       <c r="O22" s="5">
-        <v>-664.5</v>
+        <v>-781.4375</v>
       </c>
       <c r="P22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1604,47 +1527,45 @@
       <c r="A24" s="5">
         <v>1</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="5">
-        <v>8.8125</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5">
-        <v>226</v>
+        <v>581</v>
       </c>
       <c r="E24" s="5">
-        <v>584</v>
+        <v>723</v>
       </c>
       <c r="F24" s="5">
-        <v>110</v>
+        <v>728</v>
       </c>
       <c r="G24" s="5">
-        <v>920</v>
+        <v>2032</v>
       </c>
       <c r="H24" s="5">
-        <v>1565</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>-645</v>
+        <v>2032</v>
       </c>
       <c r="J24" s="5">
-        <v>0.58785942492012777</v>
+        <v>0</v>
       </c>
       <c r="K24" s="5">
-        <v>9473</v>
+        <v>14758</v>
       </c>
       <c r="L24" s="5">
-        <v>141</v>
+        <v>480</v>
       </c>
       <c r="M24" s="5">
-        <v>6718.4397163120566</v>
+        <v>3074.5833333333335</v>
       </c>
       <c r="N24" s="5">
-        <v>-9332</v>
+        <v>-14278</v>
       </c>
       <c r="O24" s="5">
-        <v>-583.25</v>
+        <v>-892.375</v>
       </c>
       <c r="P24" s="5"/>
     </row>
@@ -1652,47 +1573,45 @@
       <c r="A25" s="5">
         <v>2</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="5">
-        <v>48.6875</v>
+        <v>38.1875</v>
       </c>
       <c r="D25" s="5">
-        <v>482</v>
+        <v>229</v>
       </c>
       <c r="E25" s="5">
-        <v>309</v>
+        <v>564</v>
       </c>
       <c r="F25" s="5">
-        <v>206</v>
+        <v>843</v>
       </c>
       <c r="G25" s="5">
-        <v>997</v>
+        <v>1636</v>
       </c>
       <c r="H25" s="5">
-        <v>2276</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>-1279</v>
+        <v>1636</v>
       </c>
       <c r="J25" s="5">
-        <v>0.43804920913884005</v>
+        <v>0</v>
       </c>
       <c r="K25" s="5">
-        <v>9182</v>
+        <v>12115</v>
       </c>
       <c r="L25" s="5">
-        <v>779</v>
+        <v>611</v>
       </c>
       <c r="M25" s="5">
-        <v>1178.6906290115533</v>
+        <v>1982.8150572831423</v>
       </c>
       <c r="N25" s="5">
-        <v>-8403</v>
+        <v>-11504</v>
       </c>
       <c r="O25" s="5">
-        <v>-525.1875</v>
+        <v>-719</v>
       </c>
       <c r="P25" s="5"/>
     </row>
@@ -1700,47 +1619,45 @@
       <c r="A26" s="5">
         <v>3</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="5">
-        <v>38.1875</v>
+        <v>48.6875</v>
       </c>
       <c r="D26" s="5">
-        <v>497</v>
+        <v>150</v>
       </c>
       <c r="E26" s="5">
-        <v>538</v>
+        <v>582</v>
       </c>
       <c r="F26" s="5">
-        <v>168</v>
+        <v>976</v>
       </c>
       <c r="G26" s="5">
-        <v>1203</v>
+        <v>1708</v>
       </c>
       <c r="H26" s="5">
-        <v>1964</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>-761</v>
+        <v>1708</v>
       </c>
       <c r="J26" s="5">
-        <v>0.61252545824847249</v>
+        <v>0</v>
       </c>
       <c r="K26" s="5">
-        <v>10479</v>
+        <v>11181</v>
       </c>
       <c r="L26" s="5">
-        <v>611</v>
+        <v>779</v>
       </c>
       <c r="M26" s="5">
-        <v>1715.0572831423895</v>
+        <v>1435.3016688061616</v>
       </c>
       <c r="N26" s="5">
-        <v>-9868</v>
+        <v>-10402</v>
       </c>
       <c r="O26" s="5">
-        <v>-616.75</v>
+        <v>-650.125</v>
       </c>
       <c r="P26" s="5"/>
     </row>
@@ -1748,53 +1665,51 @@
       <c r="A27" s="5">
         <v>4</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="5">
-        <v>30</v>
+        <v>8.8125</v>
       </c>
       <c r="D27" s="5">
-        <v>153</v>
+        <v>676</v>
       </c>
       <c r="E27" s="5">
-        <v>741</v>
+        <v>174</v>
       </c>
       <c r="F27" s="5">
-        <v>627</v>
+        <v>762</v>
       </c>
       <c r="G27" s="5">
-        <v>1521</v>
+        <v>1612</v>
       </c>
       <c r="H27" s="5">
-        <v>638</v>
-      </c>
-      <c r="I27" s="6">
-        <v>883</v>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1612</v>
       </c>
       <c r="J27" s="5">
-        <v>2.3840125391849529</v>
+        <v>0</v>
       </c>
       <c r="K27" s="5">
-        <v>12726</v>
+        <v>10794</v>
       </c>
       <c r="L27" s="5">
-        <v>480</v>
+        <v>141</v>
       </c>
       <c r="M27" s="5">
-        <v>2651.25</v>
+        <v>7655.3191489361707</v>
       </c>
       <c r="N27" s="5">
-        <v>-12246</v>
+        <v>-10653</v>
       </c>
       <c r="O27" s="5">
-        <v>-765.375</v>
+        <v>-665.8125</v>
       </c>
       <c r="P27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1816,47 +1731,45 @@
       <c r="A29" s="5">
         <v>1</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="5">
         <v>21.8125</v>
       </c>
       <c r="D29" s="5">
-        <v>921</v>
+        <v>468</v>
       </c>
       <c r="E29" s="5">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="F29" s="5">
-        <v>577</v>
+        <v>543</v>
       </c>
       <c r="G29" s="5">
-        <v>1763</v>
+        <v>1234</v>
       </c>
       <c r="H29" s="5">
-        <v>1227</v>
-      </c>
-      <c r="I29" s="6">
-        <v>536</v>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1234</v>
       </c>
       <c r="J29" s="5">
-        <v>1.436837815810921</v>
+        <v>0</v>
       </c>
       <c r="K29" s="5">
-        <v>12008</v>
+        <v>13006</v>
       </c>
       <c r="L29" s="5">
         <v>349</v>
       </c>
       <c r="M29" s="5">
-        <v>3440.6876790830943</v>
+        <v>3726.647564469914</v>
       </c>
       <c r="N29" s="5">
-        <v>-11659</v>
+        <v>-12657</v>
       </c>
       <c r="O29" s="5">
-        <v>-728.6875</v>
+        <v>-791.0625</v>
       </c>
       <c r="P29" s="5"/>
     </row>
@@ -1864,47 +1777,45 @@
       <c r="A30" s="5">
         <v>2</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="5">
         <v>38.6875</v>
       </c>
       <c r="D30" s="5">
-        <v>865</v>
+        <v>223</v>
       </c>
       <c r="E30" s="5">
-        <v>383</v>
+        <v>231</v>
       </c>
       <c r="F30" s="5">
-        <v>245</v>
+        <v>508</v>
       </c>
       <c r="G30" s="5">
-        <v>1493</v>
+        <v>962</v>
       </c>
       <c r="H30" s="5">
-        <v>1227</v>
-      </c>
-      <c r="I30" s="6">
-        <v>266</v>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>962</v>
       </c>
       <c r="J30" s="5">
-        <v>1.2167889160554197</v>
+        <v>0</v>
       </c>
       <c r="K30" s="5">
-        <v>11772</v>
+        <v>12970</v>
       </c>
       <c r="L30" s="5">
         <v>619</v>
       </c>
       <c r="M30" s="5">
-        <v>1901.7770597738288</v>
+        <v>2095.3150242326333</v>
       </c>
       <c r="N30" s="5">
-        <v>-11153</v>
+        <v>-12351</v>
       </c>
       <c r="O30" s="5">
-        <v>-697.0625</v>
+        <v>-771.9375</v>
       </c>
       <c r="P30" s="5"/>
     </row>
@@ -1912,47 +1823,45 @@
       <c r="A31" s="5">
         <v>3</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="5">
         <v>59.4375</v>
       </c>
       <c r="D31" s="5">
-        <v>128</v>
+        <v>606</v>
       </c>
       <c r="E31" s="5">
-        <v>726</v>
+        <v>920</v>
       </c>
       <c r="F31" s="5">
-        <v>835</v>
+        <v>684</v>
       </c>
       <c r="G31" s="5">
-        <v>1689</v>
+        <v>2210</v>
       </c>
       <c r="H31" s="5">
-        <v>2037</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>-348</v>
+        <v>2210</v>
       </c>
       <c r="J31" s="5">
-        <v>0.82916053019145808</v>
+        <v>0</v>
       </c>
       <c r="K31" s="5">
-        <v>11688</v>
+        <v>13898</v>
       </c>
       <c r="L31" s="5">
         <v>951</v>
       </c>
       <c r="M31" s="5">
-        <v>1229.0220820189275</v>
+        <v>1461.409043112513</v>
       </c>
       <c r="N31" s="5">
-        <v>-10737</v>
+        <v>-12947</v>
       </c>
       <c r="O31" s="5">
-        <v>-671.0625</v>
+        <v>-809.1875</v>
       </c>
       <c r="P31" s="5"/>
     </row>
@@ -1960,53 +1869,51 @@
       <c r="A32" s="5">
         <v>4</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="5">
         <v>21.5625</v>
       </c>
       <c r="D32" s="5">
-        <v>384</v>
+        <v>221</v>
       </c>
       <c r="E32" s="5">
-        <v>728</v>
+        <v>838</v>
       </c>
       <c r="F32" s="5">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G32" s="5">
-        <v>1380</v>
+        <v>1298</v>
       </c>
       <c r="H32" s="5">
-        <v>2259</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>-879</v>
+        <v>1298</v>
       </c>
       <c r="J32" s="5">
-        <v>0.61088977423638779</v>
+        <v>0</v>
       </c>
       <c r="K32" s="5">
-        <v>9762</v>
+        <v>11060</v>
       </c>
       <c r="L32" s="5">
         <v>345</v>
       </c>
       <c r="M32" s="5">
-        <v>2829.5652173913045</v>
+        <v>3205.797101449275</v>
       </c>
       <c r="N32" s="5">
-        <v>-9417</v>
+        <v>-10715</v>
       </c>
       <c r="O32" s="5">
-        <v>-588.5625</v>
+        <v>-669.6875</v>
       </c>
       <c r="P32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2028,47 +1935,45 @@
       <c r="A34" s="5">
         <v>1</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B34" s="5"/>
       <c r="C34" s="5">
-        <v>15.1875</v>
+        <v>55.3125</v>
       </c>
       <c r="D34" s="5">
-        <v>423</v>
+        <v>531</v>
       </c>
       <c r="E34" s="5">
-        <v>621</v>
+        <v>458</v>
       </c>
       <c r="F34" s="5">
-        <v>886</v>
+        <v>619</v>
       </c>
       <c r="G34" s="5">
-        <v>1930</v>
+        <v>1608</v>
       </c>
       <c r="H34" s="5">
-        <v>520</v>
-      </c>
-      <c r="I34" s="6">
-        <v>1410</v>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1608</v>
       </c>
       <c r="J34" s="5">
-        <v>3.7115384615384617</v>
+        <v>0</v>
       </c>
       <c r="K34" s="5">
-        <v>11306</v>
+        <v>14367</v>
       </c>
       <c r="L34" s="5">
-        <v>243</v>
+        <v>885</v>
       </c>
       <c r="M34" s="5">
-        <v>4652.674897119341</v>
+        <v>1623.3898305084747</v>
       </c>
       <c r="N34" s="5">
-        <v>-11063</v>
+        <v>-13482</v>
       </c>
       <c r="O34" s="5">
-        <v>-691.4375</v>
+        <v>-842.625</v>
       </c>
       <c r="P34" s="5"/>
     </row>
@@ -2076,47 +1981,45 @@
       <c r="A35" s="5">
         <v>2</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="5">
-        <v>40.25</v>
+        <v>52.75</v>
       </c>
       <c r="D35" s="5">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="E35" s="5">
-        <v>666</v>
+        <v>217</v>
       </c>
       <c r="F35" s="5">
-        <v>239</v>
+        <v>355</v>
       </c>
       <c r="G35" s="5">
-        <v>1123</v>
+        <v>868</v>
       </c>
       <c r="H35" s="5">
-        <v>1586</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>-463</v>
+        <v>868</v>
       </c>
       <c r="J35" s="5">
-        <v>0.70807061790668346</v>
+        <v>0</v>
       </c>
       <c r="K35" s="5">
-        <v>12949</v>
+        <v>12444</v>
       </c>
       <c r="L35" s="5">
-        <v>644</v>
+        <v>844</v>
       </c>
       <c r="M35" s="5">
-        <v>2010.7142857142858</v>
+        <v>1474.4075829383887</v>
       </c>
       <c r="N35" s="5">
-        <v>-12305</v>
+        <v>-11600</v>
       </c>
       <c r="O35" s="5">
-        <v>-769.0625</v>
+        <v>-725</v>
       </c>
       <c r="P35" s="5"/>
     </row>
@@ -2124,47 +2027,45 @@
       <c r="A36" s="5">
         <v>3</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="5">
-        <v>52.75</v>
+        <v>40.25</v>
       </c>
       <c r="D36" s="5">
-        <v>346</v>
+        <v>860</v>
       </c>
       <c r="E36" s="5">
-        <v>650</v>
+        <v>919</v>
       </c>
       <c r="F36" s="5">
-        <v>599</v>
+        <v>868</v>
       </c>
       <c r="G36" s="5">
-        <v>1595</v>
+        <v>2647</v>
       </c>
       <c r="H36" s="5">
-        <v>1782</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>-187</v>
+        <v>2647</v>
       </c>
       <c r="J36" s="5">
-        <v>0.89506172839506171</v>
+        <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>11576</v>
+        <v>13953</v>
       </c>
       <c r="L36" s="5">
-        <v>844</v>
+        <v>644</v>
       </c>
       <c r="M36" s="5">
-        <v>1371.563981042654</v>
+        <v>2166.6149068322979</v>
       </c>
       <c r="N36" s="5">
-        <v>-10732</v>
+        <v>-13309</v>
       </c>
       <c r="O36" s="5">
-        <v>-670.75</v>
+        <v>-831.8125</v>
       </c>
       <c r="P36" s="5"/>
     </row>
@@ -2172,53 +2073,51 @@
       <c r="A37" s="5">
         <v>4</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="5">
-        <v>55.3125</v>
+        <v>15.1875</v>
       </c>
       <c r="D37" s="5">
-        <v>408</v>
+        <v>225</v>
       </c>
       <c r="E37" s="5">
-        <v>158</v>
+        <v>999</v>
       </c>
       <c r="F37" s="5">
-        <v>599</v>
+        <v>436</v>
       </c>
       <c r="G37" s="5">
-        <v>1165</v>
+        <v>1660</v>
       </c>
       <c r="H37" s="5">
-        <v>1966</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>-801</v>
+        <v>1660</v>
       </c>
       <c r="J37" s="5">
-        <v>0.59257375381485244</v>
+        <v>0</v>
       </c>
       <c r="K37" s="5">
-        <v>12759</v>
+        <v>14609</v>
       </c>
       <c r="L37" s="5">
-        <v>885</v>
+        <v>243</v>
       </c>
       <c r="M37" s="5">
-        <v>1441.6949152542372</v>
+        <v>6011.9341563786011</v>
       </c>
       <c r="N37" s="5">
-        <v>-11874</v>
+        <v>-14366</v>
       </c>
       <c r="O37" s="5">
-        <v>-742.125</v>
+        <v>-897.875</v>
       </c>
       <c r="P37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2240,47 +2139,45 @@
       <c r="A39" s="5">
         <v>1</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="5">
         <v>46.375</v>
       </c>
       <c r="D39" s="5">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="E39" s="5">
-        <v>921</v>
+        <v>526</v>
       </c>
       <c r="F39" s="5">
-        <v>656</v>
+        <v>781</v>
       </c>
       <c r="G39" s="5">
-        <v>2063</v>
+        <v>1772</v>
       </c>
       <c r="H39" s="5">
-        <v>1830</v>
-      </c>
-      <c r="I39" s="6">
-        <v>233</v>
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1772</v>
       </c>
       <c r="J39" s="5">
-        <v>1.1273224043715846</v>
+        <v>0</v>
       </c>
       <c r="K39" s="5">
-        <v>12242</v>
+        <v>14404</v>
       </c>
       <c r="L39" s="5">
         <v>742</v>
       </c>
       <c r="M39" s="5">
-        <v>1649.865229110512</v>
+        <v>1941.2398921832885</v>
       </c>
       <c r="N39" s="5">
-        <v>-11500</v>
+        <v>-13662</v>
       </c>
       <c r="O39" s="5">
-        <v>-718.75</v>
+        <v>-853.875</v>
       </c>
       <c r="P39" s="5"/>
     </row>
@@ -2288,47 +2185,45 @@
       <c r="A40" s="5">
         <v>2</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B40" s="5"/>
       <c r="C40" s="5">
         <v>11.3125</v>
       </c>
       <c r="D40" s="5">
-        <v>631</v>
+        <v>583</v>
       </c>
       <c r="E40" s="5">
-        <v>624</v>
+        <v>403</v>
       </c>
       <c r="F40" s="5">
-        <v>142</v>
+        <v>513</v>
       </c>
       <c r="G40" s="5">
-        <v>1397</v>
+        <v>1499</v>
       </c>
       <c r="H40" s="5">
-        <v>1447</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>-50</v>
+        <v>1499</v>
       </c>
       <c r="J40" s="5">
-        <v>0.96544574982722875</v>
+        <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>12632</v>
+        <v>13741</v>
       </c>
       <c r="L40" s="5">
         <v>181</v>
       </c>
       <c r="M40" s="5">
-        <v>6979.0055248618783</v>
+        <v>7591.7127071823206</v>
       </c>
       <c r="N40" s="5">
-        <v>-12451</v>
+        <v>-13560</v>
       </c>
       <c r="O40" s="5">
-        <v>-778.1875</v>
+        <v>-847.5</v>
       </c>
       <c r="P40" s="5"/>
     </row>
@@ -2336,47 +2231,45 @@
       <c r="A41" s="5">
         <v>3</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B41" s="5"/>
       <c r="C41" s="5">
         <v>55.9375</v>
       </c>
       <c r="D41" s="5">
-        <v>865</v>
+        <v>763</v>
       </c>
       <c r="E41" s="5">
-        <v>812</v>
+        <v>404</v>
       </c>
       <c r="F41" s="5">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="G41" s="5">
-        <v>2201</v>
+        <v>1767</v>
       </c>
       <c r="H41" s="5">
-        <v>1061</v>
-      </c>
-      <c r="I41" s="6">
-        <v>1140</v>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1767</v>
       </c>
       <c r="J41" s="5">
-        <v>2.0744580584354382</v>
+        <v>0</v>
       </c>
       <c r="K41" s="5">
-        <v>10149</v>
+        <v>11916</v>
       </c>
       <c r="L41" s="5">
         <v>895</v>
       </c>
       <c r="M41" s="5">
-        <v>1133.9664804469273</v>
+        <v>1331.3966480446927</v>
       </c>
       <c r="N41" s="5">
-        <v>-9254</v>
+        <v>-11021</v>
       </c>
       <c r="O41" s="5">
-        <v>-578.375</v>
+        <v>-688.8125</v>
       </c>
       <c r="P41" s="5"/>
     </row>
@@ -2384,53 +2277,51 @@
       <c r="A42" s="5">
         <v>4</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B42" s="5"/>
       <c r="C42" s="5">
         <v>10.1875</v>
       </c>
       <c r="D42" s="5">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="E42" s="5">
-        <v>798</v>
+        <v>547</v>
       </c>
       <c r="F42" s="5">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="G42" s="5">
-        <v>1545</v>
+        <v>1445</v>
       </c>
       <c r="H42" s="5">
-        <v>1060</v>
-      </c>
-      <c r="I42" s="6">
-        <v>485</v>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1445</v>
       </c>
       <c r="J42" s="5">
-        <v>1.4575471698113207</v>
+        <v>0</v>
       </c>
       <c r="K42" s="5">
-        <v>11122</v>
+        <v>12567</v>
       </c>
       <c r="L42" s="5">
         <v>163</v>
       </c>
       <c r="M42" s="5">
-        <v>6823.3128834355821</v>
+        <v>7709.815950920246</v>
       </c>
       <c r="N42" s="5">
-        <v>-10959</v>
+        <v>-12404</v>
       </c>
       <c r="O42" s="5">
-        <v>-684.9375</v>
+        <v>-775.25</v>
       </c>
       <c r="P42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2452,47 +2343,45 @@
       <c r="A44" s="5">
         <v>1</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="5">
-        <v>21.0625</v>
+        <v>34.75</v>
       </c>
       <c r="D44" s="5">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="E44" s="5">
-        <v>708</v>
+        <v>457</v>
       </c>
       <c r="F44" s="5">
-        <v>740</v>
+        <v>462</v>
       </c>
       <c r="G44" s="5">
-        <v>1775</v>
+        <v>1356</v>
       </c>
       <c r="H44" s="5">
-        <v>1773</v>
-      </c>
-      <c r="I44" s="6">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>1356</v>
       </c>
       <c r="J44" s="5">
-        <v>1.0011280315848843</v>
+        <v>0</v>
       </c>
       <c r="K44" s="5">
-        <v>11845</v>
+        <v>15703</v>
       </c>
       <c r="L44" s="5">
-        <v>337</v>
+        <v>556</v>
       </c>
       <c r="M44" s="5">
-        <v>3514.8367952522258</v>
+        <v>2824.2805755395684</v>
       </c>
       <c r="N44" s="5">
-        <v>-11508</v>
+        <v>-15147</v>
       </c>
       <c r="O44" s="5">
-        <v>-719.25</v>
+        <v>-946.6875</v>
       </c>
       <c r="P44" s="5"/>
     </row>
@@ -2500,47 +2389,45 @@
       <c r="A45" s="5">
         <v>2</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="5">
-        <v>48</v>
+        <v>43.5625</v>
       </c>
       <c r="D45" s="5">
-        <v>618</v>
+        <v>999</v>
       </c>
       <c r="E45" s="5">
-        <v>789</v>
+        <v>605</v>
       </c>
       <c r="F45" s="5">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="G45" s="5">
-        <v>1875</v>
+        <v>1990</v>
       </c>
       <c r="H45" s="5">
-        <v>966</v>
-      </c>
-      <c r="I45" s="6">
-        <v>909</v>
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1990</v>
       </c>
       <c r="J45" s="5">
-        <v>1.9409937888198758</v>
+        <v>0</v>
       </c>
       <c r="K45" s="5">
-        <v>13360</v>
+        <v>14453</v>
       </c>
       <c r="L45" s="5">
-        <v>768</v>
+        <v>697</v>
       </c>
       <c r="M45" s="5">
-        <v>1739.5833333333333</v>
+        <v>2073.6011477761836</v>
       </c>
       <c r="N45" s="5">
-        <v>-12592</v>
+        <v>-13756</v>
       </c>
       <c r="O45" s="5">
-        <v>-787</v>
+        <v>-859.75</v>
       </c>
       <c r="P45" s="5"/>
     </row>
@@ -2548,47 +2435,45 @@
       <c r="A46" s="5">
         <v>3</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="5">
-        <v>43.5625</v>
+        <v>48</v>
       </c>
       <c r="D46" s="5">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="E46" s="5">
-        <v>524</v>
+        <v>816</v>
       </c>
       <c r="F46" s="5">
-        <v>683</v>
+        <v>332</v>
       </c>
       <c r="G46" s="5">
-        <v>1787</v>
+        <v>1680</v>
       </c>
       <c r="H46" s="5">
-        <v>1653</v>
-      </c>
-      <c r="I46" s="6">
-        <v>134</v>
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1680</v>
       </c>
       <c r="J46" s="5">
-        <v>1.0810647307924985</v>
+        <v>0</v>
       </c>
       <c r="K46" s="5">
-        <v>12463</v>
+        <v>13525</v>
       </c>
       <c r="L46" s="5">
-        <v>697</v>
+        <v>768</v>
       </c>
       <c r="M46" s="5">
-        <v>1788.0918220946917</v>
+        <v>1761.0677083333333</v>
       </c>
       <c r="N46" s="5">
-        <v>-11766</v>
+        <v>-12757</v>
       </c>
       <c r="O46" s="5">
-        <v>-735.375</v>
+        <v>-797.3125</v>
       </c>
       <c r="P46" s="5"/>
     </row>
@@ -2596,53 +2481,51 @@
       <c r="A47" s="5">
         <v>4</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B47" s="5"/>
       <c r="C47" s="5">
-        <v>34.75</v>
+        <v>21.0625</v>
       </c>
       <c r="D47" s="5">
-        <v>829</v>
+        <v>305</v>
       </c>
       <c r="E47" s="5">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="F47" s="5">
-        <v>300</v>
+        <v>599</v>
       </c>
       <c r="G47" s="5">
-        <v>1235</v>
+        <v>1325</v>
       </c>
       <c r="H47" s="5">
-        <v>1531</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>-296</v>
+        <v>1325</v>
       </c>
       <c r="J47" s="5">
-        <v>0.806662312214239</v>
+        <v>0</v>
       </c>
       <c r="K47" s="5">
-        <v>14347</v>
+        <v>14685</v>
       </c>
       <c r="L47" s="5">
-        <v>556</v>
+        <v>337</v>
       </c>
       <c r="M47" s="5">
-        <v>2580.3956834532373</v>
+        <v>4357.5667655786347</v>
       </c>
       <c r="N47" s="5">
-        <v>-13791</v>
+        <v>-14348</v>
       </c>
       <c r="O47" s="5">
-        <v>-861.9375</v>
+        <v>-896.75</v>
       </c>
       <c r="P47" s="5"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2664,47 +2547,45 @@
       <c r="A49" s="5">
         <v>1</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B49" s="5"/>
       <c r="C49" s="5">
         <v>38.5625</v>
       </c>
       <c r="D49" s="5">
-        <v>839</v>
+        <v>317</v>
       </c>
       <c r="E49" s="5">
-        <v>229</v>
+        <v>989</v>
       </c>
       <c r="F49" s="5">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="G49" s="5">
-        <v>1451</v>
+        <v>1475</v>
       </c>
       <c r="H49" s="5">
-        <v>1373</v>
-      </c>
-      <c r="I49" s="6">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1475</v>
       </c>
       <c r="J49" s="5">
-        <v>1.0568099053168245</v>
+        <v>0</v>
       </c>
       <c r="K49" s="5">
-        <v>10075</v>
+        <v>14842</v>
       </c>
       <c r="L49" s="5">
         <v>617</v>
       </c>
       <c r="M49" s="5">
-        <v>1632.9011345218803</v>
+        <v>2405.5105348460293</v>
       </c>
       <c r="N49" s="5">
-        <v>-9458</v>
+        <v>-14225</v>
       </c>
       <c r="O49" s="5">
-        <v>-591.125</v>
+        <v>-889.0625</v>
       </c>
       <c r="P49" s="5"/>
     </row>
@@ -2712,47 +2593,45 @@
       <c r="A50" s="5">
         <v>2</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B50" s="5"/>
       <c r="C50" s="5">
         <v>53</v>
       </c>
       <c r="D50" s="5">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="E50" s="5">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="F50" s="5">
-        <v>960</v>
+        <v>526</v>
       </c>
       <c r="G50" s="5">
-        <v>2159</v>
+        <v>1514</v>
       </c>
       <c r="H50" s="5">
-        <v>2099</v>
-      </c>
-      <c r="I50" s="6">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1514</v>
       </c>
       <c r="J50" s="5">
-        <v>1.028585040495474</v>
+        <v>0</v>
       </c>
       <c r="K50" s="5">
-        <v>13367</v>
+        <v>11589</v>
       </c>
       <c r="L50" s="5">
         <v>848</v>
       </c>
       <c r="M50" s="5">
-        <v>1576.2971698113208</v>
+        <v>1366.6273584905659</v>
       </c>
       <c r="N50" s="5">
-        <v>-12519</v>
+        <v>-10741</v>
       </c>
       <c r="O50" s="5">
-        <v>-782.4375</v>
+        <v>-671.3125</v>
       </c>
       <c r="P50" s="5"/>
     </row>
@@ -2760,47 +2639,45 @@
       <c r="A51" s="5">
         <v>3</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="5">
         <v>54.8125</v>
       </c>
       <c r="D51" s="5">
-        <v>835</v>
+        <v>164</v>
       </c>
       <c r="E51" s="5">
-        <v>582</v>
+        <v>706</v>
       </c>
       <c r="F51" s="5">
-        <v>179</v>
+        <v>870</v>
       </c>
       <c r="G51" s="5">
-        <v>1596</v>
+        <v>1740</v>
       </c>
       <c r="H51" s="5">
-        <v>1549</v>
-      </c>
-      <c r="I51" s="6">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1740</v>
       </c>
       <c r="J51" s="5">
-        <v>1.0303421562298256</v>
+        <v>0</v>
       </c>
       <c r="K51" s="5">
-        <v>9831</v>
+        <v>11571</v>
       </c>
       <c r="L51" s="5">
         <v>877</v>
       </c>
       <c r="M51" s="5">
-        <v>1120.9806157354619</v>
+        <v>1319.3842645381985</v>
       </c>
       <c r="N51" s="5">
-        <v>-8954</v>
+        <v>-10694</v>
       </c>
       <c r="O51" s="5">
-        <v>-559.625</v>
+        <v>-668.375</v>
       </c>
       <c r="P51" s="5"/>
     </row>
@@ -2808,53 +2685,51 @@
       <c r="A52" s="5">
         <v>4</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B52" s="5"/>
       <c r="C52" s="5">
         <v>37.6875</v>
       </c>
       <c r="D52" s="5">
-        <v>570</v>
+        <v>210</v>
       </c>
       <c r="E52" s="5">
-        <v>203</v>
+        <v>747</v>
       </c>
       <c r="F52" s="5">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="G52" s="5">
-        <v>1163</v>
+        <v>1307</v>
       </c>
       <c r="H52" s="5">
-        <v>2183</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>-1020</v>
+        <v>1307</v>
       </c>
       <c r="J52" s="5">
-        <v>0.532753092075126</v>
+        <v>0</v>
       </c>
       <c r="K52" s="5">
-        <v>13154</v>
+        <v>14461</v>
       </c>
       <c r="L52" s="5">
         <v>603</v>
       </c>
       <c r="M52" s="5">
-        <v>2181.4262023217248</v>
+        <v>2398.1757877280265</v>
       </c>
       <c r="N52" s="5">
-        <v>-12551</v>
+        <v>-13858</v>
       </c>
       <c r="O52" s="5">
-        <v>-784.4375</v>
+        <v>-866.125</v>
       </c>
       <c r="P52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2876,47 +2751,45 @@
       <c r="A54" s="5">
         <v>1</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B54" s="5"/>
       <c r="C54" s="5">
-        <v>12.9375</v>
+        <v>48.5</v>
       </c>
       <c r="D54" s="5">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="E54" s="5">
-        <v>693</v>
+        <v>750</v>
       </c>
       <c r="F54" s="5">
         <v>679</v>
       </c>
       <c r="G54" s="5">
-        <v>2039</v>
+        <v>2080</v>
       </c>
       <c r="H54" s="5">
-        <v>1619</v>
-      </c>
-      <c r="I54" s="6">
-        <v>420</v>
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>2080</v>
       </c>
       <c r="J54" s="5">
-        <v>1.259419394688079</v>
+        <v>0</v>
       </c>
       <c r="K54" s="5">
-        <v>10338</v>
+        <v>15409</v>
       </c>
       <c r="L54" s="5">
-        <v>207</v>
+        <v>776</v>
       </c>
       <c r="M54" s="5">
-        <v>4994.202898550725</v>
+        <v>1985.69587628866</v>
       </c>
       <c r="N54" s="5">
-        <v>-10131</v>
+        <v>-14633</v>
       </c>
       <c r="O54" s="5">
-        <v>-633.1875</v>
+        <v>-914.5625</v>
       </c>
       <c r="P54" s="5"/>
     </row>
@@ -2924,47 +2797,45 @@
       <c r="A55" s="5">
         <v>2</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B55" s="5"/>
       <c r="C55" s="5">
-        <v>60.25</v>
+        <v>36.5</v>
       </c>
       <c r="D55" s="5">
-        <v>992</v>
+        <v>879</v>
       </c>
       <c r="E55" s="5">
-        <v>286</v>
+        <v>466</v>
       </c>
       <c r="F55" s="5">
-        <v>943</v>
+        <v>830</v>
       </c>
       <c r="G55" s="5">
-        <v>2221</v>
+        <v>2175</v>
       </c>
       <c r="H55" s="5">
-        <v>1031</v>
-      </c>
-      <c r="I55" s="6">
-        <v>1190</v>
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>2175</v>
       </c>
       <c r="J55" s="5">
-        <v>2.1542192046556741</v>
+        <v>0</v>
       </c>
       <c r="K55" s="5">
-        <v>12632</v>
+        <v>11847</v>
       </c>
       <c r="L55" s="5">
-        <v>964</v>
+        <v>584</v>
       </c>
       <c r="M55" s="5">
-        <v>1310.3734439834025</v>
+        <v>2028.5958904109589</v>
       </c>
       <c r="N55" s="5">
-        <v>-11668</v>
+        <v>-11263</v>
       </c>
       <c r="O55" s="5">
-        <v>-729.25</v>
+        <v>-703.9375</v>
       </c>
       <c r="P55" s="5"/>
     </row>
@@ -2972,47 +2843,45 @@
       <c r="A56" s="5">
         <v>3</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B56" s="5"/>
       <c r="C56" s="5">
-        <v>36.5</v>
+        <v>60.25</v>
       </c>
       <c r="D56" s="5">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="E56" s="5">
-        <v>692</v>
+        <v>102</v>
       </c>
       <c r="F56" s="5">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G56" s="5">
-        <v>1046</v>
+        <v>394</v>
       </c>
       <c r="H56" s="5">
-        <v>1586</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>-540</v>
+        <v>394</v>
       </c>
       <c r="J56" s="5">
-        <v>0.65952080706179061</v>
+        <v>0</v>
       </c>
       <c r="K56" s="5">
-        <v>9672</v>
+        <v>10732</v>
       </c>
       <c r="L56" s="5">
-        <v>584</v>
+        <v>964</v>
       </c>
       <c r="M56" s="5">
-        <v>1656.1643835616437</v>
+        <v>1113.2780082987551</v>
       </c>
       <c r="N56" s="5">
-        <v>-9088</v>
+        <v>-9768</v>
       </c>
       <c r="O56" s="5">
-        <v>-568</v>
+        <v>-610.5</v>
       </c>
       <c r="P56" s="5"/>
     </row>
@@ -3020,53 +2889,51 @@
       <c r="A57" s="5">
         <v>4</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="5">
-        <v>48.5</v>
+        <v>12.9375</v>
       </c>
       <c r="D57" s="5">
-        <v>960</v>
+        <v>863</v>
       </c>
       <c r="E57" s="5">
-        <v>355</v>
+        <v>572</v>
       </c>
       <c r="F57" s="5">
-        <v>119</v>
+        <v>734</v>
       </c>
       <c r="G57" s="5">
-        <v>1434</v>
+        <v>2169</v>
       </c>
       <c r="H57" s="5">
-        <v>2010</v>
+        <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>-576</v>
+        <v>2169</v>
       </c>
       <c r="J57" s="5">
-        <v>0.71343283582089556</v>
+        <v>0</v>
       </c>
       <c r="K57" s="5">
-        <v>13329</v>
+        <v>14801</v>
       </c>
       <c r="L57" s="5">
-        <v>776</v>
+        <v>207</v>
       </c>
       <c r="M57" s="5">
-        <v>1717.6546391752577</v>
+        <v>7150.2415458937194</v>
       </c>
       <c r="N57" s="5">
-        <v>-12553</v>
+        <v>-14594</v>
       </c>
       <c r="O57" s="5">
-        <v>-784.5625</v>
+        <v>-912.125</v>
       </c>
       <c r="P57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3088,47 +2955,45 @@
       <c r="A59" s="5">
         <v>1</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="B59" s="5"/>
       <c r="C59" s="5">
-        <v>25.625</v>
+        <v>23.9375</v>
       </c>
       <c r="D59" s="5">
-        <v>135</v>
+        <v>681</v>
       </c>
       <c r="E59" s="5">
-        <v>925</v>
+        <v>103</v>
       </c>
       <c r="F59" s="5">
-        <v>177</v>
+        <v>597</v>
       </c>
       <c r="G59" s="5">
-        <v>1237</v>
+        <v>1381</v>
       </c>
       <c r="H59" s="5">
-        <v>1213</v>
-      </c>
-      <c r="I59" s="6">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>1381</v>
       </c>
       <c r="J59" s="5">
-        <v>1.019785655399835</v>
+        <v>0</v>
       </c>
       <c r="K59" s="5">
-        <v>10331</v>
+        <v>14151</v>
       </c>
       <c r="L59" s="5">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="M59" s="5">
-        <v>2519.7560975609758</v>
+        <v>3694.7780678851173</v>
       </c>
       <c r="N59" s="5">
-        <v>-9921</v>
+        <v>-13768</v>
       </c>
       <c r="O59" s="5">
-        <v>-620.0625</v>
+        <v>-860.5</v>
       </c>
       <c r="P59" s="5"/>
     </row>
@@ -3136,47 +3001,45 @@
       <c r="A60" s="5">
         <v>2</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B60" s="5"/>
       <c r="C60" s="5">
-        <v>44.1875</v>
+        <v>60.1875</v>
       </c>
       <c r="D60" s="5">
-        <v>351</v>
+        <v>559</v>
       </c>
       <c r="E60" s="5">
-        <v>671</v>
+        <v>548</v>
       </c>
       <c r="F60" s="5">
-        <v>665</v>
+        <v>854</v>
       </c>
       <c r="G60" s="5">
-        <v>1687</v>
+        <v>1961</v>
       </c>
       <c r="H60" s="5">
-        <v>1024</v>
-      </c>
-      <c r="I60" s="6">
-        <v>663</v>
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1961</v>
       </c>
       <c r="J60" s="5">
-        <v>1.6474609375</v>
+        <v>0</v>
       </c>
       <c r="K60" s="5">
-        <v>12508</v>
+        <v>12011</v>
       </c>
       <c r="L60" s="5">
-        <v>707</v>
+        <v>963</v>
       </c>
       <c r="M60" s="5">
-        <v>1769.1654879773689</v>
+        <v>1247.2481827622014</v>
       </c>
       <c r="N60" s="5">
-        <v>-11801</v>
+        <v>-11048</v>
       </c>
       <c r="O60" s="5">
-        <v>-737.5625</v>
+        <v>-690.5</v>
       </c>
       <c r="P60" s="5"/>
     </row>
@@ -3184,47 +3047,45 @@
       <c r="A61" s="5">
         <v>3</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B61" s="5"/>
       <c r="C61" s="5">
-        <v>60.1875</v>
+        <v>44.1875</v>
       </c>
       <c r="D61" s="5">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="E61" s="5">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="F61" s="5">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="G61" s="5">
-        <v>1373</v>
+        <v>1061</v>
       </c>
       <c r="H61" s="5">
-        <v>1320</v>
-      </c>
-      <c r="I61" s="6">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1061</v>
       </c>
       <c r="J61" s="5">
-        <v>1.0401515151515151</v>
+        <v>0</v>
       </c>
       <c r="K61" s="5">
-        <v>10050</v>
+        <v>11392</v>
       </c>
       <c r="L61" s="5">
-        <v>963</v>
+        <v>707</v>
       </c>
       <c r="M61" s="5">
-        <v>1043.6137071651092</v>
+        <v>1611.3154172560112</v>
       </c>
       <c r="N61" s="5">
-        <v>-9087</v>
+        <v>-10685</v>
       </c>
       <c r="O61" s="5">
-        <v>-567.9375</v>
+        <v>-667.8125</v>
       </c>
       <c r="P61" s="5"/>
     </row>
@@ -3232,53 +3093,51 @@
       <c r="A62" s="5">
         <v>4</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B62" s="5"/>
       <c r="C62" s="5">
-        <v>23.9375</v>
+        <v>25.625</v>
       </c>
       <c r="D62" s="5">
-        <v>876</v>
+        <v>520</v>
       </c>
       <c r="E62" s="5">
-        <v>824</v>
+        <v>313</v>
       </c>
       <c r="F62" s="5">
-        <v>246</v>
+        <v>636</v>
       </c>
       <c r="G62" s="5">
-        <v>1946</v>
+        <v>1469</v>
       </c>
       <c r="H62" s="5">
-        <v>1221</v>
-      </c>
-      <c r="I62" s="6">
-        <v>725</v>
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1469</v>
       </c>
       <c r="J62" s="5">
-        <v>1.5937755937755938</v>
+        <v>0</v>
       </c>
       <c r="K62" s="5">
-        <v>12770</v>
+        <v>13977</v>
       </c>
       <c r="L62" s="5">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="M62" s="5">
-        <v>3334.2036553524808</v>
+        <v>3409.0243902439029</v>
       </c>
       <c r="N62" s="5">
-        <v>-12387</v>
+        <v>-13567</v>
       </c>
       <c r="O62" s="5">
-        <v>-774.1875</v>
+        <v>-847.9375</v>
       </c>
       <c r="P62" s="5"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3300,47 +3159,45 @@
       <c r="A64" s="5">
         <v>1</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="B64" s="5"/>
       <c r="C64" s="5">
         <v>12.1875</v>
       </c>
       <c r="D64" s="5">
-        <v>733</v>
+        <v>802</v>
       </c>
       <c r="E64" s="5">
-        <v>478</v>
+        <v>923</v>
       </c>
       <c r="F64" s="5">
-        <v>143</v>
+        <v>410</v>
       </c>
       <c r="G64" s="5">
-        <v>1354</v>
+        <v>2135</v>
       </c>
       <c r="H64" s="5">
-        <v>829</v>
-      </c>
-      <c r="I64" s="6">
-        <v>525</v>
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>2135</v>
       </c>
       <c r="J64" s="5">
-        <v>1.6332931242460795</v>
+        <v>0</v>
       </c>
       <c r="K64" s="5">
-        <v>12192</v>
+        <v>14102</v>
       </c>
       <c r="L64" s="5">
         <v>195</v>
       </c>
       <c r="M64" s="5">
-        <v>6252.3076923076924</v>
+        <v>7231.7948717948721</v>
       </c>
       <c r="N64" s="5">
-        <v>-11997</v>
+        <v>-13907</v>
       </c>
       <c r="O64" s="5">
-        <v>-749.8125</v>
+        <v>-869.1875</v>
       </c>
       <c r="P64" s="5"/>
     </row>
@@ -3348,47 +3205,45 @@
       <c r="A65" s="5">
         <v>2</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B65" s="5"/>
       <c r="C65" s="5">
         <v>10.1875</v>
       </c>
       <c r="D65" s="5">
-        <v>552</v>
+        <v>954</v>
       </c>
       <c r="E65" s="5">
-        <v>742</v>
+        <v>807</v>
       </c>
       <c r="F65" s="5">
-        <v>871</v>
+        <v>748</v>
       </c>
       <c r="G65" s="5">
-        <v>2165</v>
+        <v>2509</v>
       </c>
       <c r="H65" s="5">
-        <v>2043</v>
-      </c>
-      <c r="I65" s="6">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>2509</v>
       </c>
       <c r="J65" s="5">
-        <v>1.0597161037689673</v>
+        <v>0</v>
       </c>
       <c r="K65" s="5">
-        <v>11967</v>
+        <v>14701</v>
       </c>
       <c r="L65" s="5">
         <v>163</v>
       </c>
       <c r="M65" s="5">
-        <v>7341.7177914110425</v>
+        <v>9019.0184049079762</v>
       </c>
       <c r="N65" s="5">
-        <v>-11804</v>
+        <v>-14538</v>
       </c>
       <c r="O65" s="5">
-        <v>-737.75</v>
+        <v>-908.625</v>
       </c>
       <c r="P65" s="5"/>
     </row>
@@ -3396,47 +3251,45 @@
       <c r="A66" s="5">
         <v>3</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B66" s="5"/>
       <c r="C66" s="5">
         <v>9.9375</v>
       </c>
       <c r="D66" s="5">
-        <v>134</v>
+        <v>985</v>
       </c>
       <c r="E66" s="5">
-        <v>698</v>
+        <v>640</v>
       </c>
       <c r="F66" s="5">
-        <v>849</v>
+        <v>758</v>
       </c>
       <c r="G66" s="5">
-        <v>1681</v>
+        <v>2383</v>
       </c>
       <c r="H66" s="5">
-        <v>2343</v>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>-662</v>
+        <v>2383</v>
       </c>
       <c r="J66" s="5">
-        <v>0.71745625266752022</v>
+        <v>0</v>
       </c>
       <c r="K66" s="5">
-        <v>10554</v>
+        <v>12937</v>
       </c>
       <c r="L66" s="5">
         <v>159</v>
       </c>
       <c r="M66" s="5">
-        <v>6637.7358490566039</v>
+        <v>8136.4779874213837</v>
       </c>
       <c r="N66" s="5">
-        <v>-10395</v>
+        <v>-12778</v>
       </c>
       <c r="O66" s="5">
-        <v>-649.6875</v>
+        <v>-798.625</v>
       </c>
       <c r="P66" s="5"/>
     </row>
@@ -3444,53 +3297,51 @@
       <c r="A67" s="5">
         <v>4</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B67" s="5"/>
       <c r="C67" s="5">
         <v>13.5625</v>
       </c>
       <c r="D67" s="5">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="E67" s="5">
-        <v>902</v>
+        <v>626</v>
       </c>
       <c r="F67" s="5">
-        <v>474</v>
+        <v>861</v>
       </c>
       <c r="G67" s="5">
-        <v>1662</v>
+        <v>1972</v>
       </c>
       <c r="H67" s="5">
-        <v>1971</v>
+        <v>0</v>
       </c>
       <c r="I67" s="7">
-        <v>-309</v>
+        <v>1972</v>
       </c>
       <c r="J67" s="5">
-        <v>0.84322678843226784</v>
+        <v>0</v>
       </c>
       <c r="K67" s="5">
-        <v>10746</v>
+        <v>12718</v>
       </c>
       <c r="L67" s="5">
         <v>217</v>
       </c>
       <c r="M67" s="5">
-        <v>4952.0737327188936</v>
+        <v>5860.8294930875572</v>
       </c>
       <c r="N67" s="5">
-        <v>-10529</v>
+        <v>-12501</v>
       </c>
       <c r="O67" s="5">
-        <v>-658.0625</v>
+        <v>-781.3125</v>
       </c>
       <c r="P67" s="5"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3512,47 +3363,45 @@
       <c r="A69" s="5">
         <v>1</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="B69" s="5"/>
       <c r="C69" s="5">
-        <v>37.0625</v>
+        <v>50.9375</v>
       </c>
       <c r="D69" s="5">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="E69" s="5">
-        <v>261</v>
+        <v>986</v>
       </c>
       <c r="F69" s="5">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="G69" s="5">
-        <v>1182</v>
+        <v>1971</v>
       </c>
       <c r="H69" s="5">
-        <v>1713</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
-        <v>-531</v>
+        <v>1971</v>
       </c>
       <c r="J69" s="5">
-        <v>0.69001751313485116</v>
+        <v>0</v>
       </c>
       <c r="K69" s="5">
-        <v>10558</v>
+        <v>13454</v>
       </c>
       <c r="L69" s="5">
-        <v>593</v>
+        <v>815</v>
       </c>
       <c r="M69" s="5">
-        <v>1780.4384485666105</v>
+        <v>1650.79754601227</v>
       </c>
       <c r="N69" s="5">
-        <v>-9965</v>
+        <v>-12639</v>
       </c>
       <c r="O69" s="5">
-        <v>-622.8125</v>
+        <v>-789.9375</v>
       </c>
       <c r="P69" s="5"/>
     </row>
@@ -3560,47 +3409,45 @@
       <c r="A70" s="5">
         <v>2</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B70" s="5"/>
       <c r="C70" s="5">
-        <v>12.125</v>
+        <v>40.8125</v>
       </c>
       <c r="D70" s="5">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="E70" s="5">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="F70" s="5">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="G70" s="5">
-        <v>952</v>
+        <v>1177</v>
       </c>
       <c r="H70" s="5">
-        <v>2383</v>
+        <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>-1431</v>
+        <v>1177</v>
       </c>
       <c r="J70" s="5">
-        <v>0.39949643306756188</v>
+        <v>0</v>
       </c>
       <c r="K70" s="5">
-        <v>12428</v>
+        <v>14113</v>
       </c>
       <c r="L70" s="5">
-        <v>194</v>
+        <v>653</v>
       </c>
       <c r="M70" s="5">
-        <v>6406.18556701031</v>
+        <v>2161.2557427258807</v>
       </c>
       <c r="N70" s="5">
-        <v>-12234</v>
+        <v>-13460</v>
       </c>
       <c r="O70" s="5">
-        <v>-764.625</v>
+        <v>-841.25</v>
       </c>
       <c r="P70" s="5"/>
     </row>
@@ -3608,47 +3455,45 @@
       <c r="A71" s="5">
         <v>3</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B71" s="5"/>
       <c r="C71" s="5">
-        <v>40.8125</v>
+        <v>12.125</v>
       </c>
       <c r="D71" s="5">
-        <v>214</v>
+        <v>968</v>
       </c>
       <c r="E71" s="5">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="F71" s="5">
-        <v>162</v>
+        <v>840</v>
       </c>
       <c r="G71" s="5">
-        <v>1303</v>
+        <v>2742</v>
       </c>
       <c r="H71" s="5">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="I71" s="7">
-        <v>-712</v>
+        <v>2742</v>
       </c>
       <c r="J71" s="5">
-        <v>0.64665012406947886</v>
+        <v>0</v>
       </c>
       <c r="K71" s="5">
-        <v>12936</v>
+        <v>13300</v>
       </c>
       <c r="L71" s="5">
-        <v>653</v>
+        <v>194</v>
       </c>
       <c r="M71" s="5">
-        <v>1981.0107197549769</v>
+        <v>6855.6701030927843</v>
       </c>
       <c r="N71" s="5">
-        <v>-12283</v>
+        <v>-13106</v>
       </c>
       <c r="O71" s="5">
-        <v>-767.6875</v>
+        <v>-819.125</v>
       </c>
       <c r="P71" s="5"/>
     </row>
@@ -3656,53 +3501,51 @@
       <c r="A72" s="5">
         <v>4</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B72" s="5"/>
       <c r="C72" s="5">
-        <v>50.9375</v>
+        <v>37.0625</v>
       </c>
       <c r="D72" s="5">
-        <v>786</v>
+        <v>150</v>
       </c>
       <c r="E72" s="5">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="F72" s="5">
-        <v>648</v>
+        <v>917</v>
       </c>
       <c r="G72" s="5">
-        <v>1552</v>
+        <v>1226</v>
       </c>
       <c r="H72" s="5">
-        <v>2293</v>
+        <v>0</v>
       </c>
       <c r="I72" s="7">
-        <v>-741</v>
+        <v>1226</v>
       </c>
       <c r="J72" s="5">
-        <v>0.67684256432621015</v>
+        <v>0</v>
       </c>
       <c r="K72" s="5">
-        <v>11483</v>
+        <v>13654</v>
       </c>
       <c r="L72" s="5">
-        <v>815</v>
+        <v>593</v>
       </c>
       <c r="M72" s="5">
-        <v>1408.9570552147241</v>
+        <v>2302.5295109612143</v>
       </c>
       <c r="N72" s="5">
-        <v>-10668</v>
+        <v>-13061</v>
       </c>
       <c r="O72" s="5">
-        <v>-666.75</v>
+        <v>-816.3125</v>
       </c>
       <c r="P72" s="5"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3724,47 +3567,45 @@
       <c r="A74" s="5">
         <v>1</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="B74" s="5"/>
       <c r="C74" s="5">
-        <v>37.0625</v>
+        <v>50.9375</v>
       </c>
       <c r="D74" s="5">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="E74" s="5">
-        <v>261</v>
+        <v>986</v>
       </c>
       <c r="F74" s="5">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="G74" s="5">
-        <v>1182</v>
+        <v>1971</v>
       </c>
       <c r="H74" s="5">
-        <v>1713</v>
+        <v>0</v>
       </c>
       <c r="I74" s="7">
-        <v>-531</v>
+        <v>1971</v>
       </c>
       <c r="J74" s="5">
-        <v>0.69001751313485116</v>
+        <v>0</v>
       </c>
       <c r="K74" s="5">
-        <v>10558</v>
+        <v>13454</v>
       </c>
       <c r="L74" s="5">
-        <v>593</v>
+        <v>815</v>
       </c>
       <c r="M74" s="5">
-        <v>1780.4384485666105</v>
+        <v>1650.79754601227</v>
       </c>
       <c r="N74" s="5">
-        <v>-9965</v>
+        <v>-12639</v>
       </c>
       <c r="O74" s="5">
-        <v>-622.8125</v>
+        <v>-789.9375</v>
       </c>
       <c r="P74" s="5"/>
     </row>
@@ -3772,47 +3613,45 @@
       <c r="A75" s="5">
         <v>2</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B75" s="5"/>
       <c r="C75" s="5">
-        <v>12.125</v>
+        <v>40.8125</v>
       </c>
       <c r="D75" s="5">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="E75" s="5">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="F75" s="5">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="G75" s="5">
-        <v>952</v>
+        <v>1177</v>
       </c>
       <c r="H75" s="5">
-        <v>2383</v>
+        <v>0</v>
       </c>
       <c r="I75" s="7">
-        <v>-1431</v>
+        <v>1177</v>
       </c>
       <c r="J75" s="5">
-        <v>0.39949643306756188</v>
+        <v>0</v>
       </c>
       <c r="K75" s="5">
-        <v>12428</v>
+        <v>14113</v>
       </c>
       <c r="L75" s="5">
-        <v>194</v>
+        <v>653</v>
       </c>
       <c r="M75" s="5">
-        <v>6406.18556701031</v>
+        <v>2161.2557427258807</v>
       </c>
       <c r="N75" s="5">
-        <v>-12234</v>
+        <v>-13460</v>
       </c>
       <c r="O75" s="5">
-        <v>-764.625</v>
+        <v>-841.25</v>
       </c>
       <c r="P75" s="5"/>
     </row>
@@ -3820,47 +3659,45 @@
       <c r="A76" s="5">
         <v>3</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B76" s="5"/>
       <c r="C76" s="5">
-        <v>40.8125</v>
+        <v>12.125</v>
       </c>
       <c r="D76" s="5">
-        <v>214</v>
+        <v>968</v>
       </c>
       <c r="E76" s="5">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="F76" s="5">
-        <v>162</v>
+        <v>840</v>
       </c>
       <c r="G76" s="5">
-        <v>1303</v>
+        <v>2742</v>
       </c>
       <c r="H76" s="5">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="I76" s="7">
-        <v>-712</v>
+        <v>2742</v>
       </c>
       <c r="J76" s="5">
-        <v>0.64665012406947886</v>
+        <v>0</v>
       </c>
       <c r="K76" s="5">
-        <v>12936</v>
+        <v>13300</v>
       </c>
       <c r="L76" s="5">
-        <v>653</v>
+        <v>194</v>
       </c>
       <c r="M76" s="5">
-        <v>1981.0107197549769</v>
+        <v>6855.6701030927843</v>
       </c>
       <c r="N76" s="5">
-        <v>-12283</v>
+        <v>-13106</v>
       </c>
       <c r="O76" s="5">
-        <v>-767.6875</v>
+        <v>-819.125</v>
       </c>
       <c r="P76" s="5"/>
     </row>
@@ -3868,53 +3705,51 @@
       <c r="A77" s="5">
         <v>4</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B77" s="5"/>
       <c r="C77" s="5">
-        <v>50.9375</v>
+        <v>37.0625</v>
       </c>
       <c r="D77" s="5">
-        <v>786</v>
+        <v>150</v>
       </c>
       <c r="E77" s="5">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="F77" s="5">
-        <v>648</v>
+        <v>917</v>
       </c>
       <c r="G77" s="5">
-        <v>1552</v>
+        <v>1226</v>
       </c>
       <c r="H77" s="5">
-        <v>2293</v>
+        <v>0</v>
       </c>
       <c r="I77" s="7">
-        <v>-741</v>
+        <v>1226</v>
       </c>
       <c r="J77" s="5">
-        <v>0.67684256432621015</v>
+        <v>0</v>
       </c>
       <c r="K77" s="5">
-        <v>11483</v>
+        <v>13654</v>
       </c>
       <c r="L77" s="5">
-        <v>815</v>
+        <v>593</v>
       </c>
       <c r="M77" s="5">
-        <v>1408.9570552147241</v>
+        <v>2302.5295109612143</v>
       </c>
       <c r="N77" s="5">
-        <v>-10668</v>
+        <v>-13061</v>
       </c>
       <c r="O77" s="5">
-        <v>-666.75</v>
+        <v>-816.3125</v>
       </c>
       <c r="P77" s="5"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3936,47 +3771,45 @@
       <c r="A79" s="5">
         <v>1</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="B79" s="5"/>
       <c r="C79" s="5">
         <v>47.25</v>
       </c>
       <c r="D79" s="5">
-        <v>667</v>
+        <v>347</v>
       </c>
       <c r="E79" s="5">
-        <v>461</v>
+        <v>339</v>
       </c>
       <c r="F79" s="5">
-        <v>742</v>
+        <v>281</v>
       </c>
       <c r="G79" s="5">
-        <v>1870</v>
+        <v>967</v>
       </c>
       <c r="H79" s="5">
-        <v>2671</v>
+        <v>0</v>
       </c>
       <c r="I79" s="7">
-        <v>-801</v>
+        <v>967</v>
       </c>
       <c r="J79" s="5">
-        <v>0.70011231748408831</v>
+        <v>0</v>
       </c>
       <c r="K79" s="5">
-        <v>11691</v>
+        <v>14460</v>
       </c>
       <c r="L79" s="5">
         <v>756</v>
       </c>
       <c r="M79" s="5">
-        <v>1546.4285714285713</v>
+        <v>1912.6984126984125</v>
       </c>
       <c r="N79" s="5">
-        <v>-10935</v>
+        <v>-13704</v>
       </c>
       <c r="O79" s="5">
-        <v>-683.4375</v>
+        <v>-856.5</v>
       </c>
       <c r="P79" s="5"/>
     </row>
@@ -3984,47 +3817,45 @@
       <c r="A80" s="5">
         <v>2</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B80" s="5"/>
       <c r="C80" s="5">
         <v>30.625</v>
       </c>
       <c r="D80" s="5">
-        <v>816</v>
+        <v>349</v>
       </c>
       <c r="E80" s="5">
-        <v>274</v>
+        <v>538</v>
       </c>
       <c r="F80" s="5">
-        <v>955</v>
+        <v>207</v>
       </c>
       <c r="G80" s="5">
-        <v>2045</v>
+        <v>1094</v>
       </c>
       <c r="H80" s="5">
-        <v>1452</v>
-      </c>
-      <c r="I80" s="6">
-        <v>593</v>
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>1094</v>
       </c>
       <c r="J80" s="5">
-        <v>1.4084022038567494</v>
+        <v>0</v>
       </c>
       <c r="K80" s="5">
-        <v>13493</v>
+        <v>12785</v>
       </c>
       <c r="L80" s="5">
         <v>490</v>
       </c>
       <c r="M80" s="5">
-        <v>2753.6734693877552</v>
+        <v>2609.1836734693879</v>
       </c>
       <c r="N80" s="5">
-        <v>-13003</v>
+        <v>-12295</v>
       </c>
       <c r="O80" s="5">
-        <v>-812.6875</v>
+        <v>-768.4375</v>
       </c>
       <c r="P80" s="5"/>
     </row>
@@ -4032,47 +3863,45 @@
       <c r="A81" s="5">
         <v>3</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B81" s="5"/>
       <c r="C81" s="5">
         <v>27.625</v>
       </c>
       <c r="D81" s="5">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E81" s="5">
-        <v>129</v>
+        <v>662</v>
       </c>
       <c r="F81" s="5">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="G81" s="5">
-        <v>698</v>
+        <v>1365</v>
       </c>
       <c r="H81" s="5">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="I81" s="7">
-        <v>-1210</v>
+        <v>1365</v>
       </c>
       <c r="J81" s="5">
-        <v>0.36582809224318658</v>
+        <v>0</v>
       </c>
       <c r="K81" s="5">
-        <v>10862</v>
+        <v>12227</v>
       </c>
       <c r="L81" s="5">
         <v>442</v>
       </c>
       <c r="M81" s="5">
-        <v>2457.4660633484164</v>
+        <v>2766.2895927601808</v>
       </c>
       <c r="N81" s="5">
-        <v>-10420</v>
+        <v>-11785</v>
       </c>
       <c r="O81" s="5">
-        <v>-651.25</v>
+        <v>-736.5625</v>
       </c>
       <c r="P81" s="5"/>
     </row>
@@ -4080,53 +3909,51 @@
       <c r="A82" s="5">
         <v>4</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B82" s="5"/>
       <c r="C82" s="5">
         <v>6.5</v>
       </c>
       <c r="D82" s="5">
-        <v>366</v>
+        <v>197</v>
       </c>
       <c r="E82" s="5">
-        <v>409</v>
+        <v>710</v>
       </c>
       <c r="F82" s="5">
-        <v>861</v>
+        <v>482</v>
       </c>
       <c r="G82" s="5">
-        <v>1636</v>
+        <v>1389</v>
       </c>
       <c r="H82" s="5">
-        <v>1226</v>
-      </c>
-      <c r="I82" s="6">
-        <v>410</v>
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1389</v>
       </c>
       <c r="J82" s="5">
-        <v>1.33442088091354</v>
+        <v>0</v>
       </c>
       <c r="K82" s="5">
-        <v>12525</v>
+        <v>13914</v>
       </c>
       <c r="L82" s="5">
         <v>104</v>
       </c>
       <c r="M82" s="5">
-        <v>12043.269230769231</v>
+        <v>13378.846153846154</v>
       </c>
       <c r="N82" s="5">
-        <v>-12421</v>
+        <v>-13810</v>
       </c>
       <c r="O82" s="5">
-        <v>-776.3125</v>
+        <v>-863.125</v>
       </c>
       <c r="P82" s="5"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -4145,576 +3972,554 @@
       <c r="P83" s="4"/>
     </row>
     <row r="84">
-      <c r="A84" s="5">
+      <c r="A84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="5">
         <v>1</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C84" s="5">
-        <v>30.9375</v>
-      </c>
-      <c r="D84" s="5">
-        <v>413</v>
-      </c>
-      <c r="E84" s="5">
-        <v>844</v>
-      </c>
-      <c r="F84" s="5">
-        <v>453</v>
-      </c>
-      <c r="G84" s="5">
-        <v>1710</v>
-      </c>
-      <c r="H84" s="5">
-        <v>2431</v>
-      </c>
-      <c r="I84" s="7">
-        <v>-721</v>
-      </c>
-      <c r="J84" s="5">
-        <v>0.70341423282599758</v>
-      </c>
-      <c r="K84" s="5">
-        <v>12032</v>
-      </c>
-      <c r="L84" s="5">
-        <v>495</v>
-      </c>
-      <c r="M84" s="5">
-        <v>2430.7070707070707</v>
-      </c>
-      <c r="N84" s="5">
-        <v>-11537</v>
-      </c>
-      <c r="O84" s="5">
-        <v>-721.0625</v>
-      </c>
-      <c r="P84" s="5"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5">
+        <v>6.75</v>
+      </c>
+      <c r="D85" s="5">
+        <v>891</v>
+      </c>
+      <c r="E85" s="5">
+        <v>697</v>
+      </c>
+      <c r="F85" s="5">
+        <v>691</v>
+      </c>
+      <c r="G85" s="5">
+        <v>2279</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>2279</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0</v>
+      </c>
+      <c r="K85" s="5">
+        <v>14909</v>
+      </c>
+      <c r="L85" s="5">
+        <v>108</v>
+      </c>
+      <c r="M85" s="5">
+        <v>13804.629629629631</v>
+      </c>
+      <c r="N85" s="5">
+        <v>-14801</v>
+      </c>
+      <c r="O85" s="5">
+        <v>-925.0625</v>
+      </c>
+      <c r="P85" s="5"/>
     </row>
     <row r="86">
       <c r="A86" s="5">
-        <v>1</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B86" s="5"/>
       <c r="C86" s="5">
-        <v>6.75</v>
+        <v>32.8125</v>
       </c>
       <c r="D86" s="5">
-        <v>890</v>
+        <v>564</v>
       </c>
       <c r="E86" s="5">
-        <v>421</v>
+        <v>304</v>
       </c>
       <c r="F86" s="5">
-        <v>943</v>
+        <v>670</v>
       </c>
       <c r="G86" s="5">
-        <v>2254</v>
+        <v>1538</v>
       </c>
       <c r="H86" s="5">
-        <v>1383</v>
-      </c>
-      <c r="I86" s="6">
-        <v>871</v>
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>1538</v>
       </c>
       <c r="J86" s="5">
-        <v>1.6297903109182936</v>
+        <v>0</v>
       </c>
       <c r="K86" s="5">
-        <v>12630</v>
+        <v>11627</v>
       </c>
       <c r="L86" s="5">
-        <v>108</v>
+        <v>525</v>
       </c>
       <c r="M86" s="5">
-        <v>11694.444444444443</v>
+        <v>2214.666666666667</v>
       </c>
       <c r="N86" s="5">
-        <v>-12522</v>
+        <v>-11102</v>
       </c>
       <c r="O86" s="5">
-        <v>-782.625</v>
+        <v>-693.875</v>
       </c>
       <c r="P86" s="5"/>
     </row>
     <row r="87">
       <c r="A87" s="5">
-        <v>2</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B87" s="5"/>
       <c r="C87" s="5">
-        <v>32.8125</v>
+        <v>10.25</v>
       </c>
       <c r="D87" s="5">
-        <v>490</v>
+        <v>158</v>
       </c>
       <c r="E87" s="5">
-        <v>172</v>
+        <v>448</v>
       </c>
       <c r="F87" s="5">
-        <v>147</v>
+        <v>997</v>
       </c>
       <c r="G87" s="5">
-        <v>809</v>
+        <v>1603</v>
       </c>
       <c r="H87" s="5">
-        <v>1357</v>
+        <v>0</v>
       </c>
       <c r="I87" s="7">
-        <v>-548</v>
+        <v>1603</v>
       </c>
       <c r="J87" s="5">
-        <v>0.59616801768607219</v>
+        <v>0</v>
       </c>
       <c r="K87" s="5">
-        <v>10089</v>
+        <v>14144</v>
       </c>
       <c r="L87" s="5">
-        <v>525</v>
+        <v>164</v>
       </c>
       <c r="M87" s="5">
-        <v>1921.7142857142858</v>
+        <v>8624.3902439024387</v>
       </c>
       <c r="N87" s="5">
-        <v>-9564</v>
+        <v>-13980</v>
       </c>
       <c r="O87" s="5">
-        <v>-597.75</v>
+        <v>-873.75</v>
       </c>
       <c r="P87" s="5"/>
     </row>
     <row r="88">
       <c r="A88" s="5">
-        <v>3</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B88" s="5"/>
       <c r="C88" s="5">
-        <v>10.25</v>
+        <v>30.1875</v>
       </c>
       <c r="D88" s="5">
-        <v>980</v>
+        <v>515</v>
       </c>
       <c r="E88" s="5">
-        <v>924</v>
+        <v>691</v>
       </c>
       <c r="F88" s="5">
-        <v>699</v>
+        <v>445</v>
       </c>
       <c r="G88" s="5">
-        <v>2603</v>
+        <v>1651</v>
       </c>
       <c r="H88" s="5">
-        <v>1684</v>
-      </c>
-      <c r="I88" s="6">
-        <v>919</v>
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>1651</v>
       </c>
       <c r="J88" s="5">
-        <v>1.5457244655581948</v>
+        <v>0</v>
       </c>
       <c r="K88" s="5">
-        <v>12541</v>
+        <v>16433</v>
       </c>
       <c r="L88" s="5">
-        <v>164</v>
+        <v>483</v>
       </c>
       <c r="M88" s="5">
-        <v>7646.9512195121952</v>
+        <v>3402.2774327122152</v>
       </c>
       <c r="N88" s="5">
-        <v>-12377</v>
+        <v>-15950</v>
       </c>
       <c r="O88" s="5">
-        <v>-773.5625</v>
+        <v>-996.875</v>
       </c>
       <c r="P88" s="5"/>
     </row>
     <row r="89">
       <c r="A89" s="5">
-        <v>4</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B89" s="5"/>
       <c r="C89" s="5">
-        <v>30.1875</v>
+        <v>31</v>
       </c>
       <c r="D89" s="5">
-        <v>320</v>
+        <v>802</v>
       </c>
       <c r="E89" s="5">
-        <v>979</v>
+        <v>757</v>
       </c>
       <c r="F89" s="5">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="G89" s="5">
-        <v>1422</v>
+        <v>1799</v>
       </c>
       <c r="H89" s="5">
-        <v>1791</v>
+        <v>0</v>
       </c>
       <c r="I89" s="7">
-        <v>-369</v>
+        <v>1799</v>
       </c>
       <c r="J89" s="5">
-        <v>0.79396984924623115</v>
+        <v>0</v>
       </c>
       <c r="K89" s="5">
-        <v>14782</v>
+        <v>13560</v>
       </c>
       <c r="L89" s="5">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="M89" s="5">
-        <v>3060.4554865424429</v>
+        <v>2733.8709677419356</v>
       </c>
       <c r="N89" s="5">
-        <v>-14299</v>
+        <v>-13064</v>
       </c>
       <c r="O89" s="5">
-        <v>-893.6875</v>
+        <v>-816.5</v>
       </c>
       <c r="P89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="5">
-        <v>5</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B90" s="5"/>
       <c r="C90" s="5">
-        <v>31</v>
+        <v>48.125</v>
       </c>
       <c r="D90" s="5">
-        <v>439</v>
+        <v>583</v>
       </c>
       <c r="E90" s="5">
-        <v>971</v>
+        <v>333</v>
       </c>
       <c r="F90" s="5">
-        <v>425</v>
+        <v>219</v>
       </c>
       <c r="G90" s="5">
-        <v>1835</v>
+        <v>1135</v>
       </c>
       <c r="H90" s="5">
-        <v>1881</v>
+        <v>0</v>
       </c>
       <c r="I90" s="7">
-        <v>-46</v>
+        <v>1135</v>
       </c>
       <c r="J90" s="5">
-        <v>0.97554492291334394</v>
+        <v>0</v>
       </c>
       <c r="K90" s="5">
-        <v>11761</v>
+        <v>12564</v>
       </c>
       <c r="L90" s="5">
-        <v>496</v>
+        <v>770</v>
       </c>
       <c r="M90" s="5">
-        <v>2371.1693548387098</v>
+        <v>1631.6883116883116</v>
       </c>
       <c r="N90" s="5">
-        <v>-11265</v>
+        <v>-11794</v>
       </c>
       <c r="O90" s="5">
-        <v>-704.0625</v>
+        <v>-737.125</v>
       </c>
       <c r="P90" s="5"/>
     </row>
     <row r="91">
       <c r="A91" s="5">
-        <v>6</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B91" s="5"/>
       <c r="C91" s="5">
-        <v>48.125</v>
+        <v>7.6875</v>
       </c>
       <c r="D91" s="5">
-        <v>313</v>
+        <v>813</v>
       </c>
       <c r="E91" s="5">
-        <v>172</v>
+        <v>522</v>
       </c>
       <c r="F91" s="5">
-        <v>700</v>
+        <v>996</v>
       </c>
       <c r="G91" s="5">
-        <v>1185</v>
+        <v>2331</v>
       </c>
       <c r="H91" s="5">
-        <v>2054</v>
+        <v>0</v>
       </c>
       <c r="I91" s="7">
-        <v>-869</v>
+        <v>2331</v>
       </c>
       <c r="J91" s="5">
-        <v>0.57692307692307687</v>
+        <v>0</v>
       </c>
       <c r="K91" s="5">
-        <v>11429</v>
+        <v>15218</v>
       </c>
       <c r="L91" s="5">
-        <v>770</v>
+        <v>123</v>
       </c>
       <c r="M91" s="5">
-        <v>1484.2857142857145</v>
+        <v>12372.357723577235</v>
       </c>
       <c r="N91" s="5">
-        <v>-10659</v>
+        <v>-15095</v>
       </c>
       <c r="O91" s="5">
-        <v>-666.1875</v>
+        <v>-943.4375</v>
       </c>
       <c r="P91" s="5"/>
     </row>
     <row r="92">
       <c r="A92" s="5">
-        <v>7</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B92" s="5"/>
       <c r="C92" s="5">
-        <v>7.6875</v>
+        <v>13.125</v>
       </c>
       <c r="D92" s="5">
-        <v>959</v>
+        <v>165</v>
       </c>
       <c r="E92" s="5">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="F92" s="5">
-        <v>713</v>
+        <v>526</v>
       </c>
       <c r="G92" s="5">
-        <v>2093</v>
+        <v>1047</v>
       </c>
       <c r="H92" s="5">
-        <v>2190</v>
+        <v>0</v>
       </c>
       <c r="I92" s="7">
-        <v>-97</v>
+        <v>1047</v>
       </c>
       <c r="J92" s="5">
-        <v>0.95570776255707768</v>
+        <v>0</v>
       </c>
       <c r="K92" s="5">
-        <v>12887</v>
+        <v>12669</v>
       </c>
       <c r="L92" s="5">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="M92" s="5">
-        <v>10477.235772357723</v>
+        <v>6032.8571428571431</v>
       </c>
       <c r="N92" s="5">
-        <v>-12764</v>
+        <v>-12459</v>
       </c>
       <c r="O92" s="5">
-        <v>-797.75</v>
+        <v>-778.6875</v>
       </c>
       <c r="P92" s="5"/>
     </row>
     <row r="93">
-      <c r="A93" s="5">
-        <v>8</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C93" s="5">
-        <v>13.125</v>
-      </c>
-      <c r="D93" s="5">
-        <v>718</v>
-      </c>
-      <c r="E93" s="5">
-        <v>646</v>
-      </c>
-      <c r="F93" s="5">
-        <v>303</v>
-      </c>
-      <c r="G93" s="5">
-        <v>1667</v>
-      </c>
-      <c r="H93" s="5">
-        <v>1492</v>
-      </c>
-      <c r="I93" s="6">
-        <v>175</v>
-      </c>
-      <c r="J93" s="5">
-        <v>1.1172922252010724</v>
-      </c>
-      <c r="K93" s="5">
-        <v>11622</v>
-      </c>
-      <c r="L93" s="5">
-        <v>210</v>
-      </c>
-      <c r="M93" s="5">
-        <v>5534.2857142857138</v>
-      </c>
-      <c r="N93" s="5">
-        <v>-11412</v>
-      </c>
-      <c r="O93" s="5">
-        <v>-713.25</v>
-      </c>
-      <c r="P93" s="5"/>
+      <c r="A93" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
+      <c r="A94" s="5">
+        <v>1</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5">
+        <v>39.1875</v>
+      </c>
+      <c r="D94" s="5">
+        <v>101</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F94" s="5">
+        <v>673</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1774</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <v>1774</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="5">
+        <v>12129</v>
+      </c>
+      <c r="L94" s="5">
+        <v>627</v>
+      </c>
+      <c r="M94" s="5">
+        <v>1934.44976076555</v>
+      </c>
+      <c r="N94" s="5">
+        <v>-11502</v>
+      </c>
+      <c r="O94" s="5">
+        <v>-718.875</v>
+      </c>
+      <c r="P94" s="5"/>
     </row>
     <row r="95">
       <c r="A95" s="5">
-        <v>1</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B95" s="5"/>
       <c r="C95" s="5">
-        <v>39.1875</v>
+        <v>59.375</v>
       </c>
       <c r="D95" s="5">
-        <v>740</v>
+        <v>631</v>
       </c>
       <c r="E95" s="5">
-        <v>792</v>
+        <v>906</v>
       </c>
       <c r="F95" s="5">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="G95" s="5">
-        <v>2112</v>
+        <v>2148</v>
       </c>
       <c r="H95" s="5">
-        <v>1710</v>
-      </c>
-      <c r="I95" s="6">
-        <v>402</v>
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
+        <v>2148</v>
       </c>
       <c r="J95" s="5">
-        <v>1.2350877192982457</v>
+        <v>0</v>
       </c>
       <c r="K95" s="5">
-        <v>10355</v>
+        <v>13966</v>
       </c>
       <c r="L95" s="5">
-        <v>627</v>
+        <v>950</v>
       </c>
       <c r="M95" s="5">
-        <v>1651.5151515151515</v>
+        <v>1470.1052631578948</v>
       </c>
       <c r="N95" s="5">
-        <v>-9728</v>
+        <v>-13016</v>
       </c>
       <c r="O95" s="5">
-        <v>-608</v>
+        <v>-813.5</v>
       </c>
       <c r="P95" s="5"/>
     </row>
     <row r="96">
       <c r="A96" s="5">
-        <v>2</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B96" s="5"/>
       <c r="C96" s="5">
-        <v>59.375</v>
+        <v>0</v>
       </c>
       <c r="D96" s="5">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="E96" s="5">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="F96" s="5">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="G96" s="5">
-        <v>1806</v>
+        <v>0</v>
       </c>
       <c r="H96" s="5">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="I96" s="6">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="J96" s="5">
-        <v>1.0952092177077017</v>
+        <v>0</v>
       </c>
       <c r="K96" s="5">
-        <v>11818</v>
+        <v>0</v>
       </c>
       <c r="L96" s="5">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="M96" s="5">
-        <v>1244</v>
+        <v/>
       </c>
       <c r="N96" s="5">
-        <v>-10868</v>
+        <v>0</v>
       </c>
       <c r="O96" s="5">
-        <v>-679.25</v>
+        <v>0</v>
       </c>
       <c r="P96" s="5"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -4736,47 +4541,45 @@
       <c r="A98" s="5">
         <v>1</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="B98" s="5"/>
       <c r="C98" s="5">
-        <v>17.375</v>
+        <v>23</v>
       </c>
       <c r="D98" s="5">
-        <v>735</v>
+        <v>869</v>
       </c>
       <c r="E98" s="5">
-        <v>939</v>
+        <v>655</v>
       </c>
       <c r="F98" s="5">
-        <v>485</v>
+        <v>354</v>
       </c>
       <c r="G98" s="5">
-        <v>2159</v>
+        <v>1878</v>
       </c>
       <c r="H98" s="5">
-        <v>818</v>
-      </c>
-      <c r="I98" s="6">
-        <v>1341</v>
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>1878</v>
       </c>
       <c r="J98" s="5">
-        <v>2.6393643031784841</v>
+        <v>0</v>
       </c>
       <c r="K98" s="5">
-        <v>11891</v>
+        <v>13308</v>
       </c>
       <c r="L98" s="5">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="M98" s="5">
-        <v>4277.3381294964029</v>
+        <v>3616.3043478260865</v>
       </c>
       <c r="N98" s="5">
-        <v>-11613</v>
+        <v>-12940</v>
       </c>
       <c r="O98" s="5">
-        <v>-725.8125</v>
+        <v>-808.75</v>
       </c>
       <c r="P98" s="5"/>
     </row>
@@ -4784,47 +4587,45 @@
       <c r="A99" s="5">
         <v>2</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B99" s="5"/>
       <c r="C99" s="5">
         <v>51.375</v>
       </c>
       <c r="D99" s="5">
-        <v>679</v>
+        <v>602</v>
       </c>
       <c r="E99" s="5">
-        <v>997</v>
+        <v>756</v>
       </c>
       <c r="F99" s="5">
-        <v>709</v>
+        <v>389</v>
       </c>
       <c r="G99" s="5">
-        <v>2385</v>
+        <v>1747</v>
       </c>
       <c r="H99" s="5">
-        <v>2186</v>
-      </c>
-      <c r="I99" s="6">
-        <v>199</v>
+        <v>0</v>
+      </c>
+      <c r="I99" s="7">
+        <v>1747</v>
       </c>
       <c r="J99" s="5">
-        <v>1.0910338517840805</v>
+        <v>0</v>
       </c>
       <c r="K99" s="5">
-        <v>12388</v>
+        <v>13638</v>
       </c>
       <c r="L99" s="5">
         <v>822</v>
       </c>
       <c r="M99" s="5">
-        <v>1507.0559610705595</v>
+        <v>1659.1240875912408</v>
       </c>
       <c r="N99" s="5">
-        <v>-11566</v>
+        <v>-12816</v>
       </c>
       <c r="O99" s="5">
-        <v>-722.875</v>
+        <v>-801</v>
       </c>
       <c r="P99" s="5"/>
     </row>
@@ -4832,309 +4633,363 @@
       <c r="A100" s="5">
         <v>3</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B100" s="5"/>
       <c r="C100" s="5">
-        <v>60.375</v>
+        <v>17.375</v>
       </c>
       <c r="D100" s="5">
-        <v>405</v>
+        <v>751</v>
       </c>
       <c r="E100" s="5">
-        <v>703</v>
+        <v>430</v>
       </c>
       <c r="F100" s="5">
-        <v>886</v>
+        <v>146</v>
       </c>
       <c r="G100" s="5">
-        <v>1994</v>
+        <v>1327</v>
       </c>
       <c r="H100" s="5">
-        <v>1496</v>
-      </c>
-      <c r="I100" s="6">
-        <v>498</v>
+        <v>0</v>
+      </c>
+      <c r="I100" s="7">
+        <v>1327</v>
       </c>
       <c r="J100" s="5">
-        <v>1.3328877005347595</v>
+        <v>0</v>
       </c>
       <c r="K100" s="5">
-        <v>12030</v>
+        <v>13715</v>
       </c>
       <c r="L100" s="5">
-        <v>966</v>
+        <v>278</v>
       </c>
       <c r="M100" s="5">
-        <v>1245.3416149068323</v>
+        <v>4933.4532374100718</v>
       </c>
       <c r="N100" s="5">
-        <v>-11064</v>
+        <v>-13437</v>
       </c>
       <c r="O100" s="5">
-        <v>-691.5</v>
+        <v>-839.8125</v>
       </c>
       <c r="P100" s="5"/>
     </row>
     <row r="101">
-      <c r="A101" s="5">
-        <v>4</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" s="5">
-        <v>23</v>
-      </c>
-      <c r="D101" s="5">
-        <v>125</v>
-      </c>
-      <c r="E101" s="5">
-        <v>967</v>
-      </c>
-      <c r="F101" s="5">
-        <v>300</v>
-      </c>
-      <c r="G101" s="5">
-        <v>1392</v>
-      </c>
-      <c r="H101" s="5">
-        <v>1822</v>
-      </c>
-      <c r="I101" s="7">
-        <v>-430</v>
-      </c>
-      <c r="J101" s="5">
-        <v>0.7639956092206367</v>
-      </c>
-      <c r="K101" s="5">
-        <v>11430</v>
-      </c>
-      <c r="L101" s="5">
-        <v>368</v>
-      </c>
-      <c r="M101" s="5">
-        <v>3105.978260869565</v>
-      </c>
-      <c r="N101" s="5">
-        <v>-11062</v>
-      </c>
-      <c r="O101" s="5">
-        <v>-691.375</v>
-      </c>
-      <c r="P101" s="5"/>
+      <c r="A101" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
+      <c r="A102" s="5">
+        <v>1</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5">
+        <v>19.0625</v>
+      </c>
+      <c r="D102" s="5">
+        <v>717</v>
+      </c>
+      <c r="E102" s="5">
+        <v>341</v>
+      </c>
+      <c r="F102" s="5">
+        <v>330</v>
+      </c>
+      <c r="G102" s="5">
+        <v>1388</v>
+      </c>
+      <c r="H102" s="5">
+        <v>0</v>
+      </c>
+      <c r="I102" s="7">
+        <v>1388</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="5">
+        <v>13952</v>
+      </c>
+      <c r="L102" s="5">
+        <v>305</v>
+      </c>
+      <c r="M102" s="5">
+        <v>4574.4262295081971</v>
+      </c>
+      <c r="N102" s="5">
+        <v>-13647</v>
+      </c>
+      <c r="O102" s="5">
+        <v>-852.9375</v>
+      </c>
+      <c r="P102" s="5"/>
     </row>
     <row r="103">
       <c r="A103" s="5">
-        <v>1</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B103" s="5"/>
       <c r="C103" s="5">
-        <v>19.0625</v>
+        <v>60.25</v>
       </c>
       <c r="D103" s="5">
-        <v>721</v>
+        <v>312</v>
       </c>
       <c r="E103" s="5">
-        <v>792</v>
+        <v>547</v>
       </c>
       <c r="F103" s="5">
-        <v>609</v>
+        <v>348</v>
       </c>
       <c r="G103" s="5">
-        <v>2122</v>
+        <v>1207</v>
       </c>
       <c r="H103" s="5">
-        <v>1801</v>
-      </c>
-      <c r="I103" s="6">
-        <v>321</v>
+        <v>0</v>
+      </c>
+      <c r="I103" s="7">
+        <v>1207</v>
       </c>
       <c r="J103" s="5">
-        <v>1.1782343142698502</v>
+        <v>0</v>
       </c>
       <c r="K103" s="5">
-        <v>11292</v>
+        <v>12499</v>
       </c>
       <c r="L103" s="5">
-        <v>305</v>
+        <v>964</v>
       </c>
       <c r="M103" s="5">
-        <v>3702.2950819672133</v>
+        <v>1296.5767634854772</v>
       </c>
       <c r="N103" s="5">
-        <v>-10987</v>
+        <v>-11535</v>
       </c>
       <c r="O103" s="5">
-        <v>-686.6875</v>
+        <v>-720.9375</v>
       </c>
       <c r="P103" s="5"/>
     </row>
     <row r="104">
       <c r="A104" s="5">
-        <v>2</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B104" s="5"/>
       <c r="C104" s="5">
-        <v>60.25</v>
+        <v>49.3125</v>
       </c>
       <c r="D104" s="5">
-        <v>631</v>
+        <v>102</v>
       </c>
       <c r="E104" s="5">
-        <v>971</v>
+        <v>146</v>
       </c>
       <c r="F104" s="5">
-        <v>522</v>
+        <v>186</v>
       </c>
       <c r="G104" s="5">
-        <v>2124</v>
+        <v>434</v>
       </c>
       <c r="H104" s="5">
-        <v>2903</v>
+        <v>0</v>
       </c>
       <c r="I104" s="7">
-        <v>-779</v>
+        <v>434</v>
       </c>
       <c r="J104" s="5">
-        <v>0.73165690664829486</v>
+        <v>0</v>
       </c>
       <c r="K104" s="5">
-        <v>12564</v>
+        <v>12118</v>
       </c>
       <c r="L104" s="5">
-        <v>964</v>
+        <v>789</v>
       </c>
       <c r="M104" s="5">
-        <v>1303.3195020746889</v>
+        <v>1535.8681875792142</v>
       </c>
       <c r="N104" s="5">
-        <v>-11600</v>
+        <v>-11329</v>
       </c>
       <c r="O104" s="5">
-        <v>-725</v>
+        <v>-708.0625</v>
       </c>
       <c r="P104" s="5"/>
     </row>
     <row r="105">
-      <c r="A105" s="5">
-        <v>3</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105" s="5">
-        <v>24</v>
-      </c>
-      <c r="D105" s="5">
-        <v>930</v>
-      </c>
-      <c r="E105" s="5">
-        <v>663</v>
-      </c>
-      <c r="F105" s="5">
-        <v>999</v>
-      </c>
-      <c r="G105" s="5">
-        <v>2592</v>
-      </c>
-      <c r="H105" s="5">
-        <v>1501</v>
-      </c>
-      <c r="I105" s="6">
-        <v>1091</v>
-      </c>
-      <c r="J105" s="5">
-        <v>1.726848767488341</v>
-      </c>
-      <c r="K105" s="5">
-        <v>13175</v>
-      </c>
-      <c r="L105" s="5">
-        <v>384</v>
-      </c>
-      <c r="M105" s="5">
-        <v>3430.9895833333335</v>
-      </c>
-      <c r="N105" s="5">
-        <v>-12791</v>
-      </c>
-      <c r="O105" s="5">
-        <v>-799.4375</v>
-      </c>
-      <c r="P105" s="5"/>
+      <c r="A105" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="5">
-        <v>4</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B106" s="5"/>
       <c r="C106" s="5">
-        <v>49.3125</v>
+        <v>0</v>
       </c>
       <c r="D106" s="5">
-        <v>706</v>
+        <v>0</v>
       </c>
       <c r="E106" s="5">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="F106" s="5">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="G106" s="5">
-        <v>1890</v>
+        <v>0</v>
       </c>
       <c r="H106" s="5">
-        <v>1858</v>
+        <v>0</v>
       </c>
       <c r="I106" s="6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J106" s="5">
-        <v>1.0172228202368139</v>
+        <v>0</v>
       </c>
       <c r="K106" s="5">
-        <v>11684</v>
+        <v>0</v>
       </c>
       <c r="L106" s="5">
-        <v>789</v>
+        <v>0</v>
       </c>
       <c r="M106" s="5">
-        <v>1480.8618504435995</v>
+        <v/>
       </c>
       <c r="N106" s="5">
-        <v>-10895</v>
+        <v>0</v>
       </c>
       <c r="O106" s="5">
-        <v>-680.9375</v>
+        <v>0</v>
       </c>
       <c r="P106" s="5"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="5">
+        <v>2</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5">
+        <v>0</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5">
+        <v>0</v>
+      </c>
+      <c r="L107" s="5">
+        <v>0</v>
+      </c>
+      <c r="M107" s="5">
+        <v/>
+      </c>
+      <c r="N107" s="5">
+        <v>0</v>
+      </c>
+      <c r="O107" s="5">
+        <v>0</v>
+      </c>
+      <c r="P107" s="5"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="5">
+        <v>3</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5">
+        <v>0</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+      <c r="H108" s="5">
+        <v>0</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0</v>
+      </c>
+      <c r="K108" s="5">
+        <v>0</v>
+      </c>
+      <c r="L108" s="5">
+        <v>0</v>
+      </c>
+      <c r="M108" s="5">
+        <v/>
+      </c>
+      <c r="N108" s="5">
+        <v>0</v>
+      </c>
+      <c r="O108" s="5">
+        <v>0</v>
+      </c>
+      <c r="P108" s="5"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5162,10 +5017,11 @@
     <mergeCell ref="A73:P73"/>
     <mergeCell ref="A78:P78"/>
     <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="A93:P93"/>
     <mergeCell ref="A97:P97"/>
-    <mergeCell ref="A102:P102"/>
+    <mergeCell ref="A101:P101"/>
+    <mergeCell ref="A105:P105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
